--- a/plantilla/datos.xlsx
+++ b/plantilla/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMPORAL-STALYN\IOT\Clientes\1722439120_Stalyn_Quishpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7765567-9EF9-4089-8A78-3710BAB7EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28064657-8EF2-4A72-8E10-ACBE369FDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="12" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="156">
   <si>
     <t>domain</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>SWITCH_VALUES</t>
+  </si>
+  <si>
+    <t>orden_view</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1025,8 @@
   </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2426,100 +2429,119 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B077E1-37B3-4FBB-9A26-0E96A61E0B94}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="16">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="16">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="16">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2532,7 +2554,7 @@
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:D6</xm:sqref>
+          <xm:sqref>D2:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/plantilla/datos.xlsx
+++ b/plantilla/datos.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMPORAL-STALYN\IOT\Clientes\1722439120_Stalyn_Quishpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28064657-8EF2-4A72-8E10-ACBE369FDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32C153-1BA1-4EE9-A595-CC3C68B7B3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="12" r:id="rId1"/>
     <sheet name="AreasSK" sheetId="9" r:id="rId2"/>
     <sheet name="Ubicacion" sheetId="15" r:id="rId3"/>
     <sheet name="Personas" sheetId="14" r:id="rId4"/>
-    <sheet name="Zona" sheetId="3" r:id="rId5"/>
-    <sheet name="Domain" sheetId="5" r:id="rId6"/>
-    <sheet name="Type" sheetId="6" r:id="rId7"/>
-    <sheet name="LocationDevice" sheetId="7" r:id="rId8"/>
-    <sheet name="Technology" sheetId="8" r:id="rId9"/>
-    <sheet name="Importance" sheetId="13" r:id="rId10"/>
-    <sheet name="Nombre_Entidades" sheetId="18" r:id="rId11"/>
-    <sheet name="Datos ComboBox" sheetId="17" r:id="rId12"/>
-    <sheet name="Scenes_config" sheetId="19" r:id="rId13"/>
-    <sheet name="Leyenda" sheetId="2" r:id="rId14"/>
+    <sheet name="Cards_order_in_view" sheetId="20" r:id="rId5"/>
+    <sheet name="Zona" sheetId="3" r:id="rId6"/>
+    <sheet name="Domain" sheetId="5" r:id="rId7"/>
+    <sheet name="Type" sheetId="6" r:id="rId8"/>
+    <sheet name="LocationDevice" sheetId="7" r:id="rId9"/>
+    <sheet name="Technology" sheetId="8" r:id="rId10"/>
+    <sheet name="Importance" sheetId="13" r:id="rId11"/>
+    <sheet name="Nombre_Entidades" sheetId="18" r:id="rId12"/>
+    <sheet name="Datos ComboBox" sheetId="17" r:id="rId13"/>
+    <sheet name="Scenes_config" sheetId="19" r:id="rId14"/>
+    <sheet name="Leyenda" sheetId="2" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entidades!$B$1:$V$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entidades!$B$1:$V$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,8 +83,136 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Stalyn Ricardo Quishpe Solis</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D5691E78-2708-4A99-BEA5-ECA199B21851}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stalyn Ricardo Quishpe Solis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Solo se deben colocar las areas, que se marcacon con SI en la pestaña AREAS_SK, para que se muetre que la vista correspondiente.
+Si se deja Vacio, se mostrar en todas las vistas marcadas en AREAS_SK 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Stalyn Ricardo Quishpe Solis</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5A6D3C65-5107-4A4A-8F03-04DAE773BC9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stalyn Ricardo Quishpe Solis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Datos ligados a NameEntitiesIsmartEnum</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Stalyn Ricardo Quishpe Solis</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5E9E872D-9BAE-4994-8248-AAF50F14D551}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stalyn Ricardo Quishpe Solis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Campo asociado a NamesPositionCardsISmartEnum</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C2A74B9C-E5BB-4505-BA57-FC3A50D4C536}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stalyn Ricardo Quishpe Solis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Campo asiciado a NamesCardsISmartEnum</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="178">
   <si>
     <t>domain</t>
   </si>
@@ -482,9 +611,6 @@
     <t>name_entity</t>
   </si>
   <si>
-    <t>Temperatura_Humedad</t>
-  </si>
-  <si>
     <t>Nota: Si se agrega una ubicación se debe agregar en config/configuration.yaml en las sección de packages</t>
   </si>
   <si>
@@ -570,6 +696,75 @@
   </si>
   <si>
     <t>orden_view</t>
+  </si>
+  <si>
+    <t>Luz_directa</t>
+  </si>
+  <si>
+    <t>POSICION_EN_VIEW</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>create_card_clock</t>
+  </si>
+  <si>
+    <t>name_cards_i_smart</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>area_sk</t>
+  </si>
+  <si>
+    <t>create_card_scenes_welcome</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>card_group_switch_entities</t>
+  </si>
+  <si>
+    <t>create_card_title_welcome_smart</t>
+  </si>
+  <si>
+    <t>mdi:fridge</t>
+  </si>
+  <si>
+    <t>mdi:book-open-variant</t>
+  </si>
+  <si>
+    <t>mdi:crown</t>
+  </si>
+  <si>
+    <t>mdi:toilet</t>
+  </si>
+  <si>
+    <t>create_card_list_of_notes</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Humedad</t>
+  </si>
+  <si>
+    <t>Bateria_Sensor_TH</t>
   </si>
 </sst>
 </file>
@@ -768,7 +963,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -820,6 +1025,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1023,10 +1232,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1081,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>18</v>
@@ -1159,8 +1368,8 @@
         <v>9</v>
       </c>
       <c r="O2" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F2,".",G2,V2,E2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,B2,V2,D2),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luz_00_wifi_01_Exterior_Gradas_planta_baja_a_segunda_planta</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F2,".",G2,V2,E2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,B2,V2,D2),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luz_00_wifi_01_exterior_gradas_planta_baja_a_segunda_planta</v>
       </c>
       <c r="P2" t="str">
         <f>SUBSTITUTE(CONCATENATE(G2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,D2,V2,B2),"-","_")</f>
@@ -1171,20 +1380,20 @@
         <v>Gradas_planta_baja_a_segunda_planta_Exterior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R2" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G2," ",IF(H2="00",,CONCATENATE(H2," "))," ",I2," ",N2," ",D2),"-", " ")</f>
-        <v>Interruptor doble  Luz del Gradas planta baja a segunda planta</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H2="00",,CONCATENATE(H2," "))," ",I2," ",N2," ",D2),"-", " ")</f>
+        <v xml:space="preserve"> Luz del Gradas planta baja a segunda planta</v>
       </c>
       <c r="S2" t="str">
         <f>_xlfn.CONCAT(A2,"/",B2,"/",C2,"/",D2,"/",F2,"/",G2,"/",H2,"/",I2,"/")</f>
         <v>Casa/Exterior/Planta-baja/Gradas-planta-baja-a-segunda-planta/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T2" t="str">
-        <f>CONCATENATE(G2,V2,IF(H2="00",,CONCATENATE(H2,V2)),I2,V2,SUBSTITUTE(N2," ","_"),V2,D2)</f>
-        <v>Interruptor-doble_Luz_del_Gradas-planta-baja-a-segunda-planta</v>
+        <f>CONCATENATE(G2,V2,IF(H2="00",CONCATENATE(H2,V2)),I2,V2,SUBSTITUTE(N2," ","_"),V2,D2)</f>
+        <v>Interruptor-doble_00_Luz_del_Gradas-planta-baja-a-segunda-planta</v>
       </c>
       <c r="U2" t="str">
         <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B2,"/Ubicacion","/",C2,"/Areas","/",D2,"/",T2,".svg")</f>
-        <v>/local/ismart/planos/Zonas/Exterior/Ubicacion/Planta-baja/Areas/Gradas-planta-baja-a-segunda-planta/Interruptor-doble_Luz_del_Gradas-planta-baja-a-segunda-planta.svg</v>
+        <v>/local/ismart/planos/Zonas/Exterior/Ubicacion/Planta-baja/Areas/Gradas-planta-baja-a-segunda-planta/Interruptor-doble_00_Luz_del_Gradas-planta-baja-a-segunda-planta.svg</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>10</v>
@@ -1234,8 +1443,8 @@
         <v>40</v>
       </c>
       <c r="O3" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F3,".",G3,V3,E3,V3,I3,V3,H3,V3,J3,V3,LEFT(K3,2),V3,B3,V3,D3),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luz_00_zigbee_01_Exterior_Lavanderia</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F3,".",G3,V3,E3,V3,I3,V3,H3,V3,J3,V3,LEFT(K3,2),V3,B3,V3,D3),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_exterior_lavanderia</v>
       </c>
       <c r="P3" t="str">
         <f>SUBSTITUTE(CONCATENATE(G3,V3,I3,V3,H3,V3,J3,V3,LEFT(K3,2),V3,D3,V3,B3),"-","_")</f>
@@ -1246,8 +1455,8 @@
         <v>Lavanderia_Exterior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R3" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G3," ",IF(H3="00",,CONCATENATE(H3," "))," ",I3," ",N3," ",D3),"-", " ")</f>
-        <v>Interruptor doble  Luz de la Lavanderia</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H3="00",,CONCATENATE(H3," "))," ",I3," ",N3," ",D3),"-", " ")</f>
+        <v xml:space="preserve"> Luz de la Lavanderia</v>
       </c>
       <c r="S3" t="str">
         <f>_xlfn.CONCAT(A3,"/",B3,"/",C3,"/",D3,"/",F3,"/",G3,"/",H3,"/",I3,"/")</f>
@@ -1309,8 +1518,8 @@
         <v>83</v>
       </c>
       <c r="O4" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F4,".",G4,V4,E4,V4,I4,V4,H4,V4,J4,V4,LEFT(K4,2),V4,B4,V4,D4),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luz_00_zigbee_01_Exterior_Gradas_segunda_planta_a_planta_baja</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F4,".",G4,V4,E4,V4,I4,V4,H4,V4,J4,V4,LEFT(K4,2),V4,B4,V4,D4),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_exterior_gradas_segunda_planta_a_planta_baja</v>
       </c>
       <c r="P4" t="str">
         <f>SUBSTITUTE(CONCATENATE(G4,V4,I4,V4,H4,V4,J4,V4,LEFT(K4,2),V4,D4,V4,B4),"-","_")</f>
@@ -1321,8 +1530,8 @@
         <v>Gradas_segunda_planta_a_planta_baja_Exterior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R4" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G4," ",IF(H4="00",,CONCATENATE(H4," "))," ",I4," ",N4," ",D4),"-", " ")</f>
-        <v>Interruptor doble  Luz desde Gradas segunda planta a planta baja</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H4="00",,CONCATENATE(H4," "))," ",I4," ",N4," ",D4),"-", " ")</f>
+        <v xml:space="preserve"> Luz desde Gradas segunda planta a planta baja</v>
       </c>
       <c r="S4" t="str">
         <f>_xlfn.CONCAT(A4,"/",B4,"/",C4,"/",D4,"/",F4,"/",G4,"/",H4,"/",I4,"/")</f>
@@ -1384,8 +1593,8 @@
         <v>40</v>
       </c>
       <c r="O5" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F5,".",G5,V5,E5,V5,I5,V5,H5,V5,J5,V5,LEFT(K5,2),V5,B5,V5,D5),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luz_00_zigbee_01_Exterior_Gradas_segunda_planta_a_tercera_planta</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F5,".",G5,V5,E5,V5,I5,V5,H5,V5,J5,V5,LEFT(K5,2),V5,B5,V5,D5),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_exterior_gradas_segunda_planta_a_tercera_planta</v>
       </c>
       <c r="P5" t="str">
         <f>SUBSTITUTE(CONCATENATE(G5,V5,I5,V5,H5,V5,J5,V5,LEFT(K5,2),V5,D5,V5,B5),"-","_")</f>
@@ -1396,8 +1605,8 @@
         <v>Gradas_segunda_planta_a_tercera_planta_Exterior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R5" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G5," ",IF(H5="00",,CONCATENATE(H5," "))," ",I5," ",N5," ",D5),"-", " ")</f>
-        <v>Interruptor doble  Luz de la Gradas segunda planta a tercera planta</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H5="00",,CONCATENATE(H5," "))," ",I5," ",N5," ",D5),"-", " ")</f>
+        <v xml:space="preserve"> Luz de la Gradas segunda planta a tercera planta</v>
       </c>
       <c r="S5" t="str">
         <f>_xlfn.CONCAT(A5,"/",B5,"/",C5,"/",D5,"/",F5,"/",G5,"/",H5,"/",I5,"/")</f>
@@ -1459,8 +1668,8 @@
         <v>40</v>
       </c>
       <c r="O6" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F6,".",G6,V6,E6,V6,I6,V6,H6,V6,J6,V6,LEFT(K6,2),V6,B6,V6,D6),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luces_00_zigbee_01_Exterior_Terraza</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F6,".",G6,V6,E6,V6,I6,V6,H6,V6,J6,V6,LEFT(K6,2),V6,B6,V6,D6),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_exterior_terraza</v>
       </c>
       <c r="P6" t="str">
         <f>SUBSTITUTE(CONCATENATE(G6,V6,I6,V6,H6,V6,J6,V6,LEFT(K6,2),V6,D6,V6,B6),"-","_")</f>
@@ -1471,8 +1680,8 @@
         <v>Terraza_Exterior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R6" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G6," ",IF(H6="00",,CONCATENATE(H6," "))," ",I6," ",N6," ",D6),"-", " ")</f>
-        <v>Interruptor doble  Luces de la Terraza</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H6="00",,CONCATENATE(H6," "))," ",I6," ",N6," ",D6),"-", " ")</f>
+        <v xml:space="preserve"> Luces de la Terraza</v>
       </c>
       <c r="S6" t="str">
         <f>_xlfn.CONCAT(A6,"/",B6,"/",C6,"/",D6,"/",F6,"/",G6,"/",H6,"/",I6,"/")</f>
@@ -1534,8 +1743,8 @@
         <v>9</v>
       </c>
       <c r="O7" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F7,".",G7,V7,E7,V7,I7,V7,H7,V7,J7,V7,LEFT(K7,2),V7,B7,V7,D7),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luces_00_zigbee_01_Interior_Banio</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F7,".",G7,V7,E7,V7,I7,V7,H7,V7,J7,V7,LEFT(K7,2),V7,B7,V7,D7),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_banio</v>
       </c>
       <c r="P7" t="str">
         <f>SUBSTITUTE(CONCATENATE(G7,V7,I7,V7,H7,V7,J7,V7,LEFT(K7,2),V7,D7,V7,B7),"-","_")</f>
@@ -1546,8 +1755,8 @@
         <v>Banio_Interior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R7" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G7," ",IF(H7="00",,CONCATENATE(H7," "))," ",I7," ",N7," ",D7),"-", " ")</f>
-        <v>Interruptor doble  Luces del Banio</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H7="00",,CONCATENATE(H7," "))," ",I7," ",N7," ",D7),"-", " ")</f>
+        <v xml:space="preserve"> Luces del Banio</v>
       </c>
       <c r="S7" t="str">
         <f>_xlfn.CONCAT(A7,"/",B7,"/",C7,"/",D7,"/",F7,"/",G7,"/",H7,"/",I7,"/")</f>
@@ -1609,8 +1818,8 @@
         <v>9</v>
       </c>
       <c r="O8" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F8,".",G8,V8,E8,V8,I8,V8,H8,V8,J8,V8,LEFT(K8,2),V8,B8,V8,D8),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luces_00_zigbee_01_Interior_Cocina</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F8,".",G8,V8,E8,V8,I8,V8,H8,V8,J8,V8,LEFT(K8,2),V8,B8,V8,D8),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_cocina</v>
       </c>
       <c r="P8" t="str">
         <f>SUBSTITUTE(CONCATENATE(G8,V8,I8,V8,H8,V8,J8,V8,LEFT(K8,2),V8,D8,V8,B8),"-","_")</f>
@@ -1621,8 +1830,8 @@
         <v>Cocina_Interior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R8" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G8," ",IF(H8="00",,CONCATENATE(H8," "))," ",I8," ",N8," ",D8),"-", " ")</f>
-        <v>Interruptor doble  Luces del Cocina</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H8="00",,CONCATENATE(H8," "))," ",I8," ",N8," ",D8),"-", " ")</f>
+        <v xml:space="preserve"> Luces del Cocina</v>
       </c>
       <c r="S8" t="str">
         <f>_xlfn.CONCAT(A8,"/",B8,"/",C8,"/",D8,"/",F8,"/",G8,"/",H8,"/",I8,"/")</f>
@@ -1684,8 +1893,8 @@
         <v>83</v>
       </c>
       <c r="O9" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F9,".",G9,V9,E9,V9,I9,V9,H9,V9,J9,V9,LEFT(K9,2),V9,B9,V9,D9),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luz_00_zigbee_01_Interior_Cuarto_squishpe</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F9,".",G9,V9,E9,V9,I9,V9,H9,V9,J9,V9,LEFT(K9,2),V9,B9,V9,D9),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_cuarto_squishpe</v>
       </c>
       <c r="P9" t="str">
         <f>SUBSTITUTE(CONCATENATE(G9,V9,I9,V9,H9,V9,J9,V9,LEFT(K9,2),V9,D9,V9,B9),"-","_")</f>
@@ -1696,8 +1905,8 @@
         <v>Cuarto_squishpe_Interior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R9" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G9," ",IF(H9="00",,CONCATENATE(H9," "))," ",I9," ",N9," ",D9),"-", " ")</f>
-        <v>Interruptor doble  Luz desde Cuarto squishpe</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H9="00",,CONCATENATE(H9," "))," ",I9," ",N9," ",D9),"-", " ")</f>
+        <v xml:space="preserve"> Luz desde Cuarto squishpe</v>
       </c>
       <c r="S9" t="str">
         <f>_xlfn.CONCAT(A9,"/",B9,"/",C9,"/",D9,"/",F9,"/",G9,"/",H9,"/",I9,"/")</f>
@@ -1729,13 +1938,13 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>8</v>
@@ -1756,35 +1965,35 @@
         <v>17</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="O10" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F10,".",G10,V10,E10,V10,I10,V10,H10,V10,J10,V10,LEFT(K10,2),V10,B10,V10,D10),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luz_00_zigbee_01_Interior_Estudio</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F10,".",G10,V10,E10,V10,I10,V10,H10,V10,J10,V10,LEFT(K10,2),V10,B10,V10,D10),"-","_"))</f>
+        <v>switch.interruptor_simple_techo_luz_00_zigbee_01_interior_estudio</v>
       </c>
       <c r="P10" t="str">
         <f>SUBSTITUTE(CONCATENATE(G10,V10,I10,V10,H10,V10,J10,V10,LEFT(K10,2),V10,D10,V10,B10),"-","_")</f>
-        <v>Interruptor_doble_Luz_00_zigbee_01_Estudio_Interior</v>
+        <v>Interruptor_simple_Luz_00_zigbee_01_Estudio_Interior</v>
       </c>
       <c r="Q10" t="str">
         <f>SUBSTITUTE(CONCATENATE((D10),V10,(B10),V10,(G10),V10,H10, V10, I10),"-","_")</f>
-        <v>Estudio_Interior_Interruptor_doble_00_Luz</v>
+        <v>Estudio_Interior_Interruptor_simple_00_Luz</v>
       </c>
       <c r="R10" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G10," ",IF(H10="00",,CONCATENATE(H10," "))," ",I10," ",N10," ",D10),"-", " ")</f>
-        <v>Interruptor doble  Luz desde Estudio</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H10="00",,CONCATENATE(H10," "))," ",I10," ",N10," ",D10),"-", " ")</f>
+        <v xml:space="preserve"> Luz del Estudio</v>
       </c>
       <c r="S10" t="str">
         <f>_xlfn.CONCAT(A10,"/",B10,"/",C10,"/",D10,"/",F10,"/",G10,"/",H10,"/",I10,"/")</f>
-        <v>Casa/Interior/Segunda-planta/Estudio/switch/Interruptor-doble/00/Luz/</v>
+        <v>Casa/Interior/Segunda-planta/Estudio/switch/Interruptor-simple/00/Luz/</v>
       </c>
       <c r="T10" t="str">
         <f>CONCATENATE(G10,V10,IF(H10="00",,CONCATENATE(H10,V10)),I10,V10,SUBSTITUTE(N10," ","_"),V10,D10)</f>
-        <v>Interruptor-doble_Luz_desde_Estudio</v>
+        <v>Interruptor-simple_Luz_del_Estudio</v>
       </c>
       <c r="U10" t="str">
         <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B10,"/Ubicacion","/",C10,"/Areas","/",D10,"/",T10,".svg")</f>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Interruptor-doble_Luz_desde_Estudio.svg</v>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Interruptor-simple_Luz_del_Estudio.svg</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>10</v>
@@ -1800,8 +2009,8 @@
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>82</v>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -1816,7 +2025,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>77</v>
@@ -1831,35 +2040,35 @@
         <v>17</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="O11" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F11,".",G11,V11,E11,V11,I11,V11,H11,V11,J11,V11,LEFT(K11,2),V11,B11,V11,D11),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luces_00_zigbee_01_Interior_Recibidor</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F11,".",G11,V11,E11,V11,I11,V11,H11,V11,J11,V11,LEFT(K11,2),V11,B11,V11,D11),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_estudio</v>
       </c>
       <c r="P11" t="str">
         <f>SUBSTITUTE(CONCATENATE(G11,V11,I11,V11,H11,V11,J11,V11,LEFT(K11,2),V11,D11,V11,B11),"-","_")</f>
-        <v>Interruptor_doble_Luces_00_zigbee_01_Recibidor_Interior</v>
+        <v>Interruptor_doble_Luz_00_zigbee_01_Estudio_Interior</v>
       </c>
       <c r="Q11" t="str">
         <f>SUBSTITUTE(CONCATENATE((D11),V11,(B11),V11,(G11),V11,H11, V11, I11),"-","_")</f>
-        <v>Recibidor_Interior_Interruptor_doble_00_Luces</v>
+        <v>Estudio_Interior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R11" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G11," ",IF(H11="00",,CONCATENATE(H11," "))," ",I11," ",N11," ",D11),"-", " ")</f>
-        <v>Interruptor doble  Luces del Recibidor</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H11="00",,CONCATENATE(H11," "))," ",I11," ",N11," ",D11),"-", " ")</f>
+        <v xml:space="preserve"> Luz desde Estudio</v>
       </c>
       <c r="S11" t="str">
         <f>_xlfn.CONCAT(A11,"/",B11,"/",C11,"/",D11,"/",F11,"/",G11,"/",H11,"/",I11,"/")</f>
-        <v>Casa/Interior/Segunda-planta/Recibidor/switch/Interruptor-doble/00/Luces/</v>
+        <v>Casa/Interior/Segunda-planta/Estudio/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T11" t="str">
         <f>CONCATENATE(G11,V11,IF(H11="00",,CONCATENATE(H11,V11)),I11,V11,SUBSTITUTE(N11," ","_"),V11,D11)</f>
-        <v>Interruptor-doble_Luces_del_Recibidor</v>
+        <v>Interruptor-doble_Luz_desde_Estudio</v>
       </c>
       <c r="U11" t="str">
         <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B11,"/Ubicacion","/",C11,"/Areas","/",D11,"/",T11,".svg")</f>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Recibidor/Interruptor-doble_Luces_del_Recibidor.svg</v>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Interruptor-doble_Luz_desde_Estudio.svg</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>10</v>
@@ -1875,8 +2084,8 @@
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
+      <c r="D12" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>42</v>
@@ -1887,7 +2096,7 @@
       <c r="G12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="19" t="s">
@@ -1906,35 +2115,35 @@
         <v>17</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="O12" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F12,".",G12,V12,E12,V12,I12,V12,H12,V12,J12,V12,LEFT(K12,2),V12,B12,V12,D12),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luces_00_zigbee_01_Interior_Sala</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F12,".",G12,V12,E12,V12,I12,V12,H12,V12,J12,V12,LEFT(K12,2),V12,B12,V12,D12),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_recibidor</v>
       </c>
       <c r="P12" t="str">
         <f>SUBSTITUTE(CONCATENATE(G12,V12,I12,V12,H12,V12,J12,V12,LEFT(K12,2),V12,D12,V12,B12),"-","_")</f>
-        <v>Interruptor_doble_Luces_00_zigbee_01_Sala_Interior</v>
+        <v>Interruptor_doble_Luces_00_zigbee_01_Recibidor_Interior</v>
       </c>
       <c r="Q12" t="str">
         <f>SUBSTITUTE(CONCATENATE((D12),V12,(B12),V12,(G12),V12,H12, V12, I12),"-","_")</f>
-        <v>Sala_Interior_Interruptor_doble_00_Luces</v>
+        <v>Recibidor_Interior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R12" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G12," ",IF(H12="00",,CONCATENATE(H12," "))," ",I12," ",N12," ",D12),"-", " ")</f>
-        <v>Interruptor doble  Luces de la Sala</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H12="00",,CONCATENATE(H12," "))," ",I12," ",N12," ",D12),"-", " ")</f>
+        <v xml:space="preserve"> Luces del Recibidor</v>
       </c>
       <c r="S12" t="str">
         <f>_xlfn.CONCAT(A12,"/",B12,"/",C12,"/",D12,"/",F12,"/",G12,"/",H12,"/",I12,"/")</f>
-        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/00/Luces/</v>
+        <v>Casa/Interior/Segunda-planta/Recibidor/switch/Interruptor-doble/00/Luces/</v>
       </c>
       <c r="T12" t="str">
         <f>CONCATENATE(G12,V12,IF(H12="00",,CONCATENATE(H12,V12)),I12,V12,SUBSTITUTE(N12," ","_"),V12,D12)</f>
-        <v>Interruptor-doble_Luces_de_la_Sala</v>
+        <v>Interruptor-doble_Luces_del_Recibidor</v>
       </c>
       <c r="U12" t="str">
         <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B12,"/Ubicacion","/",C12,"/Areas","/",D12,"/",T12,".svg")</f>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_Luces_de_la_Sala.svg</v>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Recibidor/Interruptor-doble_Luces_del_Recibidor.svg</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>10</v>
@@ -1963,10 +2172,10 @@
         <v>44</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>77</v>
@@ -1984,32 +2193,32 @@
         <v>40</v>
       </c>
       <c r="O13" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F13,".",G13,V13,E13,V13,I13,V13,H13,V13,J13,V13,LEFT(K13,2),V13,B13,V13,D13),"-","_")</f>
-        <v>switch.Interruptor_doble_Pared_Luces_01_zigbee_01_Interior_Sala</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F13,".",G13,V13,E13,V13,I13,V13,H13,V13,J13,V13,LEFT(K13,2),V13,B13,V13,D13),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P13" t="str">
         <f>SUBSTITUTE(CONCATENATE(G13,V13,I13,V13,H13,V13,J13,V13,LEFT(K13,2),V13,D13,V13,B13),"-","_")</f>
-        <v>Interruptor_doble_Luces_01_zigbee_01_Sala_Interior</v>
+        <v>Interruptor_doble_Luz_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q13" t="str">
         <f>SUBSTITUTE(CONCATENATE((D13),V13,(B13),V13,(G13),V13,H13, V13, I13),"-","_")</f>
-        <v>Sala_Interior_Interruptor_doble_01_Luces</v>
+        <v>Sala_Interior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R13" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G13," ",IF(H13="00",,CONCATENATE(H13," "))," ",I13," ",N13," ",D13),"-", " ")</f>
-        <v>Interruptor doble 01  Luces de la Sala</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H13="00",,CONCATENATE(H13," "))," ",I13," ",N13," ",D13),"-", " ")</f>
+        <v xml:space="preserve"> Luz de la Sala</v>
       </c>
       <c r="S13" t="str">
         <f>_xlfn.CONCAT(A13,"/",B13,"/",C13,"/",D13,"/",F13,"/",G13,"/",H13,"/",I13,"/")</f>
-        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/01/Luces/</v>
+        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T13" t="str">
         <f>CONCATENATE(G13,V13,IF(H13="00",,CONCATENATE(H13,V13)),I13,V13,SUBSTITUTE(N13," ","_"),V13,D13)</f>
-        <v>Interruptor-doble_01_Luces_de_la_Sala</v>
+        <v>Interruptor-doble_Luz_de_la_Sala</v>
       </c>
       <c r="U13" t="str">
         <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B13,"/Ubicacion","/",C13,"/Areas","/",D13,"/",T13,".svg")</f>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_01_Luces_de_la_Sala.svg</v>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_Luz_de_la_Sala.svg</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>10</v>
@@ -2032,16 +2241,16 @@
         <v>42</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>77</v>
@@ -2059,63 +2268,271 @@
         <v>40</v>
       </c>
       <c r="O14" t="str">
-        <f>SUBSTITUTE(CONCATENATE(F14,".",G14,V14,E14,V14,I14,V14,H14,V14,J14,V14,LEFT(K14,2),V14,B14,V14,D14),"-","_")</f>
-        <v>sensor.Sensor_Pared_Temperatura_Humedad_00_zigbee_01_Interior_Sala</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F14,".",G14,V14,E14,V14,I14,V14,H14,V14,J14,V14,LEFT(K14,2),V14,B14,V14,D14),"-","_"))</f>
+        <v>switch.interruptor_doble_pared_luz_directa_01_zigbee_01_interior_sala</v>
       </c>
       <c r="P14" t="str">
         <f>SUBSTITUTE(CONCATENATE(G14,V14,I14,V14,H14,V14,J14,V14,LEFT(K14,2),V14,D14,V14,B14),"-","_")</f>
-        <v>Sensor_Temperatura_Humedad_00_zigbee_01_Sala_Interior</v>
+        <v>Interruptor_doble_Luz_directa_01_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q14" t="str">
         <f>SUBSTITUTE(CONCATENATE((D14),V14,(B14),V14,(G14),V14,H14, V14, I14),"-","_")</f>
-        <v>Sala_Interior_Sensor_00_Temperatura_Humedad</v>
+        <v>Sala_Interior_Interruptor_doble_01_Luz_directa</v>
       </c>
       <c r="R14" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G14," ",IF(H14="00",,CONCATENATE(H14," "))," ",I14," ",N14," ",D14),"-", " ")</f>
-        <v>Sensor  Temperatura_Humedad de la Sala</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H14="00",,CONCATENATE(H14," "))," ",I14," ",N14," ",D14),"-", " ")</f>
+        <v>01  Luz_directa de la Sala</v>
       </c>
       <c r="S14" t="str">
         <f>_xlfn.CONCAT(A14,"/",B14,"/",C14,"/",D14,"/",F14,"/",G14,"/",H14,"/",I14,"/")</f>
-        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Temperatura_Humedad/</v>
+        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/01/Luz_directa/</v>
       </c>
       <c r="T14" t="str">
         <f>CONCATENATE(G14,V14,IF(H14="00",,CONCATENATE(H14,V14)),I14,V14,SUBSTITUTE(N14," ","_"),V14,D14)</f>
-        <v>Sensor_Temperatura_Humedad_de_la_Sala</v>
+        <v>Interruptor-doble_01_Luz_directa_de_la_Sala</v>
       </c>
       <c r="U14" t="str">
         <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B14,"/Ubicacion","/",C14,"/Areas","/",D14,"/",T14,".svg")</f>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Temperatura_Humedad_de_la_Sala.svg</v>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_01_Luz_directa_de_la_Sala.svg</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="16"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="19"/>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" s="26"/>
+      <c r="A15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="str">
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F15,".",G15,V15,E15,V15,I15,V15,H15,V15,J15,V15,LEFT(K15,2),V15,B15,V15,D15),"-","_"))</f>
+        <v>sensor.sensor_pared_temperatura_00_zigbee_01_interior_sala</v>
+      </c>
+      <c r="P15" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G15,V15,I15,V15,H15,V15,J15,V15,LEFT(K15,2),V15,D15,V15,B15),"-","_")</f>
+        <v>Sensor_Temperatura_00_zigbee_01_Sala_Interior</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>SUBSTITUTE(CONCATENATE((D15),V15,(B15),V15,(G15),V15,H15, V15, I15),"-","_")</f>
+        <v>Sala_Interior_Sensor_00_Temperatura</v>
+      </c>
+      <c r="R15" t="str">
+        <f>SUBSTITUTE(CONCATENATE(IF(H15="00",,CONCATENATE(H15," "))," ",I15," ",N15," ",D15),"-", " ")</f>
+        <v xml:space="preserve"> Temperatura de la Sala</v>
+      </c>
+      <c r="S15" t="str">
+        <f>_xlfn.CONCAT(A15,"/",B15,"/",C15,"/",D15,"/",F15,"/",G15,"/",H15,"/",I15,"/")</f>
+        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Temperatura/</v>
+      </c>
+      <c r="T15" t="str">
+        <f>CONCATENATE(G15,V15,IF(H15="00",,CONCATENATE(H15,V15)),I15,V15,SUBSTITUTE(N15," ","_"),V15,D15)</f>
+        <v>Sensor_Temperatura_de_la_Sala</v>
+      </c>
+      <c r="U15" t="str">
+        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B15,"/Ubicacion","/",C15,"/Areas","/",D15,"/",T15,".svg")</f>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Temperatura_de_la_Sala.svg</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" t="str">
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F16,".",G16,V16,E16,V16,I16,V16,H16,V16,J16,V16,LEFT(K16,2),V16,B16,V16,D16),"-","_"))</f>
+        <v>sensor.sensor_pared_humedad_00_zigbee_01_interior_sala</v>
+      </c>
+      <c r="P16" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G16,V16,I16,V16,H16,V16,J16,V16,LEFT(K16,2),V16,D16,V16,B16),"-","_")</f>
+        <v>Sensor_Humedad_00_zigbee_01_Sala_Interior</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>SUBSTITUTE(CONCATENATE((D16),V16,(B16),V16,(G16),V16,H16, V16, I16),"-","_")</f>
+        <v>Sala_Interior_Sensor_00_Humedad</v>
+      </c>
+      <c r="R16" t="str">
+        <f>SUBSTITUTE(CONCATENATE(IF(H16="00",,CONCATENATE(H16," "))," ",I16," ",N16," ",D16),"-", " ")</f>
+        <v xml:space="preserve"> Humedad de la Sala</v>
+      </c>
+      <c r="S16" t="str">
+        <f>_xlfn.CONCAT(A16,"/",B16,"/",C16,"/",D16,"/",F16,"/",G16,"/",H16,"/",I16,"/")</f>
+        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Humedad/</v>
+      </c>
+      <c r="T16" t="str">
+        <f>CONCATENATE(G16,V16,IF(H16="00",,CONCATENATE(H16,V16)),I16,V16,SUBSTITUTE(N16," ","_"),V16,D16)</f>
+        <v>Sensor_Humedad_de_la_Sala</v>
+      </c>
+      <c r="U16" t="str">
+        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B16,"/Ubicacion","/",C16,"/Areas","/",D16,"/",T16,".svg")</f>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Humedad_de_la_Sala.svg</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" t="str">
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F17,".",G17,V17,E17,V17,I17,V17,H17,V17,J17,V17,LEFT(K17,2),V17,B17,V17,D17),"-","_"))</f>
+        <v>sensor.sensor_pared_bateria_sensor_th_00_zigbee_01_interior_sala</v>
+      </c>
+      <c r="P17" t="str">
+        <f>SUBSTITUTE(CONCATENATE(G17,V17,I17,V17,H17,V17,J17,V17,LEFT(K17,2),V17,D17,V17,B17),"-","_")</f>
+        <v>Sensor_Bateria_Sensor_TH_00_zigbee_01_Sala_Interior</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>SUBSTITUTE(CONCATENATE((D17),V17,(B17),V17,(G17),V17,H17, V17, I17),"-","_")</f>
+        <v>Sala_Interior_Sensor_00_Bateria_Sensor_TH</v>
+      </c>
+      <c r="R17" t="str">
+        <f>SUBSTITUTE(CONCATENATE(IF(H17="00",,CONCATENATE(H17," "))," ",I17," ",N17," ",D17),"-", " ")</f>
+        <v xml:space="preserve"> Bateria_Sensor_TH de la Sala</v>
+      </c>
+      <c r="S17" t="str">
+        <f>_xlfn.CONCAT(A17,"/",B17,"/",C17,"/",D17,"/",F17,"/",G17,"/",H17,"/",I17,"/")</f>
+        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Bateria_Sensor_TH/</v>
+      </c>
+      <c r="T17" t="str">
+        <f>CONCATENATE(G17,V17,IF(H17="00",,CONCATENATE(H17,V17)),I17,V17,SUBSTITUTE(N17," ","_"),V17,D17)</f>
+        <v>Sensor_Bateria_Sensor_TH_de_la_Sala</v>
+      </c>
+      <c r="U17" t="str">
+        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B17,"/Ubicacion","/",C17,"/Areas","/",D17,"/",T17,".svg")</f>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Bateria_Sensor_TH_de_la_Sala.svg</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="K22" s="26"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V14">
-    <sortCondition ref="B2:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V15">
+    <sortCondition ref="B2:B15"/>
   </sortState>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2126,7 +2543,7 @@
           <x14:formula1>
             <xm:f>AreasSK!$A$2:$A$32</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D15</xm:sqref>
+          <xm:sqref>D9:D17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D45CE4A7-E42B-4756-998A-3C7CEDAE1670}">
           <x14:formula1>
@@ -2138,55 +2555,55 @@
           <x14:formula1>
             <xm:f>Zona!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B15</xm:sqref>
+          <xm:sqref>B2:B17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D7E912A-9EEA-4A7E-BA71-EB1AE0E4ADA5}">
           <x14:formula1>
             <xm:f>Type!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G15</xm:sqref>
+          <xm:sqref>G2:G17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9CBB5A09-5E5C-407E-BA26-A7699A10D719}">
           <x14:formula1>
             <xm:f>LocationDevice!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E15</xm:sqref>
+          <xm:sqref>E2:E17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{46FF9668-8E5B-4F69-99AC-869AA36609B8}">
           <x14:formula1>
             <xm:f>Ubicacion!$A$2:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C15</xm:sqref>
+          <xm:sqref>C2:C17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E02A4412-B018-4DF2-8E88-469CB105D9E7}">
           <x14:formula1>
             <xm:f>Technology!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J15</xm:sqref>
+          <xm:sqref>J2:J17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00765230-EFF7-4A9F-8655-D4A0D5B527BE}">
           <x14:formula1>
             <xm:f>Importance!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K15</xm:sqref>
+          <xm:sqref>K2:K17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{820B1DE8-0DFF-43CE-87BC-815AA122B86A}">
           <x14:formula1>
             <xm:f>AreasSK!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D8 D10</xm:sqref>
+          <xm:sqref>D8 D10:D11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60A29141-6D71-45D0-B030-450CD38D68A6}">
           <x14:formula1>
-            <xm:f>Nombre_Entidades!$A$2:$A$4</xm:f>
+            <xm:f>Nombre_Entidades!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I15</xm:sqref>
+          <xm:sqref>I2:I17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE8FA183-60B6-45C4-9BE0-181207916F32}">
           <x14:formula1>
             <xm:f>Domain!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F15</xm:sqref>
+          <xm:sqref>F2:F17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2195,6 +2612,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795E1D1-AEFB-4BA2-85DE-EA1F172FA954}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021641D4-885E-4CBC-B3B6-61C30772A54B}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -2237,12 +2703,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD521F66-7339-4766-87AE-20EB5EAC51B7}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD521F66-7339-4766-87AE-20EB5EAC51B7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2267,23 +2733,37 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>126</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>177</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6369E091-0E04-40BB-909D-8136BCC61440}">
-  <dimension ref="A1:D19"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6369E091-0E04-40BB-909D-8136BCC61440}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2292,9 +2772,10 @@
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="22" t="s">
         <v>94</v>
       </c>
@@ -2302,13 +2783,19 @@
         <v>97</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
         <v>95</v>
       </c>
@@ -2316,13 +2803,19 @@
         <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
         <v>96</v>
       </c>
@@ -2330,77 +2823,95 @@
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="25" t="s">
         <v>101</v>
       </c>
       <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="25" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="B8" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="B9" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="B10" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="B11" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="B12" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="B13" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="B14" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="B15" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="B16" s="25" t="s">
         <v>112</v>
       </c>
@@ -2422,17 +2933,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="G2" xr:uid="{68475AB6-6090-4CA7-AF87-A5D4EC6E7D68}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B077E1-37B3-4FBB-9A26-0E96A61E0B94}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2445,13 +2960,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15">
       <c r="A1" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>64</v>
@@ -2462,87 +2977,87 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>146</v>
+      <c r="C2" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="16">
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="16">
         <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="16">
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2629,7 +3144,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2669,7 +3184,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>95</v>
@@ -2686,7 +3201,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
         <v>95</v>
@@ -2703,7 +3218,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
         <v>96</v>
@@ -2720,7 +3235,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
         <v>95</v>
@@ -2906,15 +3421,15 @@
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="SI">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="SI">
       <formula>NOT(ISERROR(SEARCH("SI",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="SI">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="SI">
       <formula>NOT(ISERROR(SEARCH("SI",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C15">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2947,7 +3462,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2960,7 +3475,7 @@
         <v>48</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -3025,7 +3540,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3035,27 +3550,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>95</v>
@@ -3063,13 +3578,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
         <v>95</v>
@@ -3077,13 +3592,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
@@ -3113,11 +3628,198 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835E477-E50A-4F6B-8EE3-C9E8A7CDD930}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT(A2,"~",E2)</f>
+        <v>create_card_title_welcome_smart~Cocina</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3" si="0">_xlfn.CONCAT(A3,"~",E3)</f>
+        <v>create_card_clock~Cocina</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="str">
+        <f>_xlfn.CONCAT(A4,"~",E4)</f>
+        <v>create_card_scenes_welcome~Cocina</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5" si="1">_xlfn.CONCAT(A5,"~",E5)</f>
+        <v>card_group_switch_entities~Cocina</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6" si="2">_xlfn.CONCAT(A6,"~",E6)</f>
+        <v>create_card_list_of_notes~Cocina</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="B2:B6" xr:uid="{37AE49D2-9CED-4E6E-9EBC-C46311551CD2}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{F02249E7-15AC-41DC-8A5E-CC9ECC2BC7BD}">
+          <x14:formula1>
+            <xm:f>'Datos ComboBox'!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{E5F6FFA7-9561-46C7-8026-03E748D14487}">
+          <x14:formula1>
+            <xm:f>AreasSK!$A$2:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{C5473ADE-DC07-49B2-A82F-62EEC8FC8C54}">
+          <x14:formula1>
+            <xm:f>'Datos ComboBox'!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{7986FA5B-1C52-49BD-98F6-A9B7A99D71BA}">
+          <x14:formula1>
+            <xm:f>'Datos ComboBox'!$G$2:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3524E0-4C8C-47D1-B095-A060BEC62B67}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3142,12 +3844,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD10A63-CCAA-4FA1-A317-5EAEA4E3DC5B}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3253,7 +3955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C995BE-9AFD-4F24-9038-2BC0697FD49C}">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -3324,7 +4026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DE2E24-C651-4BC6-99A4-AC86854674C1}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -3363,53 +4065,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795E1D1-AEFB-4BA2-85DE-EA1F172FA954}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/plantilla/datos.xlsx
+++ b/plantilla/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMPORAL-STALYN\IOT\Clientes\1722439120_Stalyn_Quishpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32C153-1BA1-4EE9-A595-CC3C68B7B3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0862185A-C4A5-4F63-9F53-9C960B5A0D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entidades!$B$1:$V$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -908,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -957,8 +958,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,10 +1024,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,7 +1230,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1368,23 +1363,23 @@
         <v>9</v>
       </c>
       <c r="O2" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F2,".",G2,V2,E2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,B2,V2,D2),"-","_"))</f>
+        <f t="shared" ref="O2:O17" si="0">LOWER(SUBSTITUTE(CONCATENATE(F2,".",G2,V2,E2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,B2,V2,D2),"-","_"))</f>
         <v>switch.interruptor_doble_pared_luz_00_wifi_01_exterior_gradas_planta_baja_a_segunda_planta</v>
       </c>
       <c r="P2" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,D2,V2,B2),"-","_")</f>
+        <f t="shared" ref="P2:P17" si="1">SUBSTITUTE(CONCATENATE(G2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,D2,V2,B2),"-","_")</f>
         <v>Interruptor_doble_Luz_00_wifi_01_Gradas_planta_baja_a_segunda_planta_Exterior</v>
       </c>
       <c r="Q2" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D2),V2,(B2),V2,(G2),V2,H2, V2, I2),"-","_")</f>
+        <f t="shared" ref="Q2:Q17" si="2">SUBSTITUTE(CONCATENATE((D2),V2,(B2),V2,(G2),V2,H2, V2, I2),"-","_")</f>
         <v>Gradas_planta_baja_a_segunda_planta_Exterior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R2" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H2="00",,CONCATENATE(H2," "))," ",I2," ",N2," ",D2),"-", " ")</f>
+        <f t="shared" ref="R2:R17" si="3">SUBSTITUTE(CONCATENATE(IF(H2="00",,CONCATENATE(H2," "))," ",I2," ",N2," ",D2),"-", " ")</f>
         <v xml:space="preserve"> Luz del Gradas planta baja a segunda planta</v>
       </c>
       <c r="S2" t="str">
-        <f>_xlfn.CONCAT(A2,"/",B2,"/",C2,"/",D2,"/",F2,"/",G2,"/",H2,"/",I2,"/")</f>
+        <f t="shared" ref="S2:S17" si="4">_xlfn.CONCAT(A2,"/",B2,"/",C2,"/",D2,"/",F2,"/",G2,"/",H2,"/",I2,"/")</f>
         <v>Casa/Exterior/Planta-baja/Gradas-planta-baja-a-segunda-planta/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T2" t="str">
@@ -1443,27 +1438,27 @@
         <v>40</v>
       </c>
       <c r="O3" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F3,".",G3,V3,E3,V3,I3,V3,H3,V3,J3,V3,LEFT(K3,2),V3,B3,V3,D3),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luz_00_zigbee_01_exterior_lavanderia</v>
       </c>
       <c r="P3" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G3,V3,I3,V3,H3,V3,J3,V3,LEFT(K3,2),V3,D3,V3,B3),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luz_00_zigbee_01_Lavanderia_Exterior</v>
       </c>
       <c r="Q3" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D3),V3,(B3),V3,(G3),V3,H3, V3, I3),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Lavanderia_Exterior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R3" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H3="00",,CONCATENATE(H3," "))," ",I3," ",N3," ",D3),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luz de la Lavanderia</v>
       </c>
       <c r="S3" t="str">
-        <f>_xlfn.CONCAT(A3,"/",B3,"/",C3,"/",D3,"/",F3,"/",G3,"/",H3,"/",I3,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Exterior/Planta-baja/Lavanderia/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T3" t="str">
-        <f>CONCATENATE(G3,V3,IF(H3="00",,CONCATENATE(H3,V3)),I3,V3,SUBSTITUTE(N3," ","_"),V3,D3)</f>
+        <f t="shared" ref="T3:T17" si="5">CONCATENATE(G3,V3,IF(H3="00",,CONCATENATE(H3,V3)),I3,V3,SUBSTITUTE(N3," ","_"),V3,D3)</f>
         <v>Interruptor-doble_Luz_de_la_Lavanderia</v>
       </c>
       <c r="U3" t="str">
@@ -1518,27 +1513,27 @@
         <v>83</v>
       </c>
       <c r="O4" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F4,".",G4,V4,E4,V4,I4,V4,H4,V4,J4,V4,LEFT(K4,2),V4,B4,V4,D4),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luz_00_zigbee_01_exterior_gradas_segunda_planta_a_planta_baja</v>
       </c>
       <c r="P4" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G4,V4,I4,V4,H4,V4,J4,V4,LEFT(K4,2),V4,D4,V4,B4),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luz_00_zigbee_01_Gradas_segunda_planta_a_planta_baja_Exterior</v>
       </c>
       <c r="Q4" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D4),V4,(B4),V4,(G4),V4,H4, V4, I4),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Gradas_segunda_planta_a_planta_baja_Exterior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R4" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H4="00",,CONCATENATE(H4," "))," ",I4," ",N4," ",D4),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luz desde Gradas segunda planta a planta baja</v>
       </c>
       <c r="S4" t="str">
-        <f>_xlfn.CONCAT(A4,"/",B4,"/",C4,"/",D4,"/",F4,"/",G4,"/",H4,"/",I4,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Exterior/Segunda-planta/Gradas-segunda-planta-a-planta-baja/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T4" t="str">
-        <f>CONCATENATE(G4,V4,IF(H4="00",,CONCATENATE(H4,V4)),I4,V4,SUBSTITUTE(N4," ","_"),V4,D4)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_Luz_desde_Gradas-segunda-planta-a-planta-baja</v>
       </c>
       <c r="U4" t="str">
@@ -1593,27 +1588,27 @@
         <v>40</v>
       </c>
       <c r="O5" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F5,".",G5,V5,E5,V5,I5,V5,H5,V5,J5,V5,LEFT(K5,2),V5,B5,V5,D5),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luz_00_zigbee_01_exterior_gradas_segunda_planta_a_tercera_planta</v>
       </c>
       <c r="P5" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G5,V5,I5,V5,H5,V5,J5,V5,LEFT(K5,2),V5,D5,V5,B5),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luz_00_zigbee_01_Gradas_segunda_planta_a_tercera_planta_Exterior</v>
       </c>
       <c r="Q5" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D5),V5,(B5),V5,(G5),V5,H5, V5, I5),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Gradas_segunda_planta_a_tercera_planta_Exterior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R5" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H5="00",,CONCATENATE(H5," "))," ",I5," ",N5," ",D5),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luz de la Gradas segunda planta a tercera planta</v>
       </c>
       <c r="S5" t="str">
-        <f>_xlfn.CONCAT(A5,"/",B5,"/",C5,"/",D5,"/",F5,"/",G5,"/",H5,"/",I5,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Exterior/Segunda-planta/Gradas-segunda-planta-a-tercera-planta/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T5" t="str">
-        <f>CONCATENATE(G5,V5,IF(H5="00",,CONCATENATE(H5,V5)),I5,V5,SUBSTITUTE(N5," ","_"),V5,D5)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_Luz_de_la_Gradas-segunda-planta-a-tercera-planta</v>
       </c>
       <c r="U5" t="str">
@@ -1668,27 +1663,27 @@
         <v>40</v>
       </c>
       <c r="O6" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F6,".",G6,V6,E6,V6,I6,V6,H6,V6,J6,V6,LEFT(K6,2),V6,B6,V6,D6),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luces_00_zigbee_01_exterior_terraza</v>
       </c>
       <c r="P6" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G6,V6,I6,V6,H6,V6,J6,V6,LEFT(K6,2),V6,D6,V6,B6),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luces_00_zigbee_01_Terraza_Exterior</v>
       </c>
       <c r="Q6" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D6),V6,(B6),V6,(G6),V6,H6, V6, I6),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Terraza_Exterior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R6" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H6="00",,CONCATENATE(H6," "))," ",I6," ",N6," ",D6),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luces de la Terraza</v>
       </c>
       <c r="S6" t="str">
-        <f>_xlfn.CONCAT(A6,"/",B6,"/",C6,"/",D6,"/",F6,"/",G6,"/",H6,"/",I6,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Exterior/Tercera-planta/Terraza/switch/Interruptor-doble/00/Luces/</v>
       </c>
       <c r="T6" t="str">
-        <f>CONCATENATE(G6,V6,IF(H6="00",,CONCATENATE(H6,V6)),I6,V6,SUBSTITUTE(N6," ","_"),V6,D6)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_Luces_de_la_Terraza</v>
       </c>
       <c r="U6" t="str">
@@ -1743,31 +1738,31 @@
         <v>9</v>
       </c>
       <c r="O7" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F7,".",G7,V7,E7,V7,I7,V7,H7,V7,J7,V7,LEFT(K7,2),V7,B7,V7,D7),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_banio</v>
       </c>
       <c r="P7" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G7,V7,I7,V7,H7,V7,J7,V7,LEFT(K7,2),V7,D7,V7,B7),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luces_00_zigbee_01_Banio_Interior</v>
       </c>
       <c r="Q7" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D7),V7,(B7),V7,(G7),V7,H7, V7, I7),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Banio_Interior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R7" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H7="00",,CONCATENATE(H7," "))," ",I7," ",N7," ",D7),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luces del Banio</v>
       </c>
       <c r="S7" t="str">
-        <f>_xlfn.CONCAT(A7,"/",B7,"/",C7,"/",D7,"/",F7,"/",G7,"/",H7,"/",I7,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Banio/switch/Interruptor-doble/00/Luces/</v>
       </c>
       <c r="T7" t="str">
-        <f>CONCATENATE(G7,V7,IF(H7="00",,CONCATENATE(H7,V7)),I7,V7,SUBSTITUTE(N7," ","_"),V7,D7)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_Luces_del_Banio</v>
       </c>
       <c r="U7" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B7,"/Ubicacion","/",C7,"/Areas","/",D7,"/",T7,".svg")</f>
+        <f t="shared" ref="U7:U17" si="6">_xlfn.CONCAT("/local/ismart/planos/Zonas/",B7,"/Ubicacion","/",C7,"/Areas","/",D7,"/",T7,".svg")</f>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Banio/Interruptor-doble_Luces_del_Banio.svg</v>
       </c>
       <c r="V7" s="4" t="s">
@@ -1818,31 +1813,31 @@
         <v>9</v>
       </c>
       <c r="O8" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F8,".",G8,V8,E8,V8,I8,V8,H8,V8,J8,V8,LEFT(K8,2),V8,B8,V8,D8),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_cocina</v>
       </c>
       <c r="P8" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G8,V8,I8,V8,H8,V8,J8,V8,LEFT(K8,2),V8,D8,V8,B8),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luces_00_zigbee_01_Cocina_Interior</v>
       </c>
       <c r="Q8" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D8),V8,(B8),V8,(G8),V8,H8, V8, I8),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Cocina_Interior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R8" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H8="00",,CONCATENATE(H8," "))," ",I8," ",N8," ",D8),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luces del Cocina</v>
       </c>
       <c r="S8" t="str">
-        <f>_xlfn.CONCAT(A8,"/",B8,"/",C8,"/",D8,"/",F8,"/",G8,"/",H8,"/",I8,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Cocina/switch/Interruptor-doble/00/Luces/</v>
       </c>
       <c r="T8" t="str">
-        <f>CONCATENATE(G8,V8,IF(H8="00",,CONCATENATE(H8,V8)),I8,V8,SUBSTITUTE(N8," ","_"),V8,D8)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_Luces_del_Cocina</v>
       </c>
       <c r="U8" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B8,"/Ubicacion","/",C8,"/Areas","/",D8,"/",T8,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Cocina/Interruptor-doble_Luces_del_Cocina.svg</v>
       </c>
       <c r="V8" s="4" t="s">
@@ -1893,31 +1888,31 @@
         <v>83</v>
       </c>
       <c r="O9" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F9,".",G9,V9,E9,V9,I9,V9,H9,V9,J9,V9,LEFT(K9,2),V9,B9,V9,D9),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_cuarto_squishpe</v>
       </c>
       <c r="P9" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G9,V9,I9,V9,H9,V9,J9,V9,LEFT(K9,2),V9,D9,V9,B9),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luz_00_zigbee_01_Cuarto_squishpe_Interior</v>
       </c>
       <c r="Q9" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D9),V9,(B9),V9,(G9),V9,H9, V9, I9),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Cuarto_squishpe_Interior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R9" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H9="00",,CONCATENATE(H9," "))," ",I9," ",N9," ",D9),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luz desde Cuarto squishpe</v>
       </c>
       <c r="S9" t="str">
-        <f>_xlfn.CONCAT(A9,"/",B9,"/",C9,"/",D9,"/",F9,"/",G9,"/",H9,"/",I9,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Cuarto-squishpe/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T9" t="str">
-        <f>CONCATENATE(G9,V9,IF(H9="00",,CONCATENATE(H9,V9)),I9,V9,SUBSTITUTE(N9," ","_"),V9,D9)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_Luz_desde_Cuarto-squishpe</v>
       </c>
       <c r="U9" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B9,"/Ubicacion","/",C9,"/Areas","/",D9,"/",T9,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Cuarto-squishpe/Interruptor-doble_Luz_desde_Cuarto-squishpe.svg</v>
       </c>
       <c r="V9" s="4" t="s">
@@ -1968,31 +1963,31 @@
         <v>9</v>
       </c>
       <c r="O10" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F10,".",G10,V10,E10,V10,I10,V10,H10,V10,J10,V10,LEFT(K10,2),V10,B10,V10,D10),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_simple_techo_luz_00_zigbee_01_interior_estudio</v>
       </c>
       <c r="P10" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G10,V10,I10,V10,H10,V10,J10,V10,LEFT(K10,2),V10,D10,V10,B10),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_simple_Luz_00_zigbee_01_Estudio_Interior</v>
       </c>
       <c r="Q10" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D10),V10,(B10),V10,(G10),V10,H10, V10, I10),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Estudio_Interior_Interruptor_simple_00_Luz</v>
       </c>
       <c r="R10" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H10="00",,CONCATENATE(H10," "))," ",I10," ",N10," ",D10),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luz del Estudio</v>
       </c>
       <c r="S10" t="str">
-        <f>_xlfn.CONCAT(A10,"/",B10,"/",C10,"/",D10,"/",F10,"/",G10,"/",H10,"/",I10,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Estudio/switch/Interruptor-simple/00/Luz/</v>
       </c>
       <c r="T10" t="str">
-        <f>CONCATENATE(G10,V10,IF(H10="00",,CONCATENATE(H10,V10)),I10,V10,SUBSTITUTE(N10," ","_"),V10,D10)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-simple_Luz_del_Estudio</v>
       </c>
       <c r="U10" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B10,"/Ubicacion","/",C10,"/Areas","/",D10,"/",T10,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Interruptor-simple_Luz_del_Estudio.svg</v>
       </c>
       <c r="V10" s="4" t="s">
@@ -2043,31 +2038,31 @@
         <v>83</v>
       </c>
       <c r="O11" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F11,".",G11,V11,E11,V11,I11,V11,H11,V11,J11,V11,LEFT(K11,2),V11,B11,V11,D11),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_estudio</v>
       </c>
       <c r="P11" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G11,V11,I11,V11,H11,V11,J11,V11,LEFT(K11,2),V11,D11,V11,B11),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luz_00_zigbee_01_Estudio_Interior</v>
       </c>
       <c r="Q11" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D11),V11,(B11),V11,(G11),V11,H11, V11, I11),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Estudio_Interior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R11" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H11="00",,CONCATENATE(H11," "))," ",I11," ",N11," ",D11),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luz desde Estudio</v>
       </c>
       <c r="S11" t="str">
-        <f>_xlfn.CONCAT(A11,"/",B11,"/",C11,"/",D11,"/",F11,"/",G11,"/",H11,"/",I11,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Estudio/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T11" t="str">
-        <f>CONCATENATE(G11,V11,IF(H11="00",,CONCATENATE(H11,V11)),I11,V11,SUBSTITUTE(N11," ","_"),V11,D11)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_Luz_desde_Estudio</v>
       </c>
       <c r="U11" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B11,"/Ubicacion","/",C11,"/Areas","/",D11,"/",T11,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Interruptor-doble_Luz_desde_Estudio.svg</v>
       </c>
       <c r="V11" s="4" t="s">
@@ -2118,31 +2113,31 @@
         <v>9</v>
       </c>
       <c r="O12" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F12,".",G12,V12,E12,V12,I12,V12,H12,V12,J12,V12,LEFT(K12,2),V12,B12,V12,D12),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_recibidor</v>
       </c>
       <c r="P12" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G12,V12,I12,V12,H12,V12,J12,V12,LEFT(K12,2),V12,D12,V12,B12),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luces_00_zigbee_01_Recibidor_Interior</v>
       </c>
       <c r="Q12" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D12),V12,(B12),V12,(G12),V12,H12, V12, I12),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Recibidor_Interior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R12" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H12="00",,CONCATENATE(H12," "))," ",I12," ",N12," ",D12),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luces del Recibidor</v>
       </c>
       <c r="S12" t="str">
-        <f>_xlfn.CONCAT(A12,"/",B12,"/",C12,"/",D12,"/",F12,"/",G12,"/",H12,"/",I12,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Recibidor/switch/Interruptor-doble/00/Luces/</v>
       </c>
       <c r="T12" t="str">
-        <f>CONCATENATE(G12,V12,IF(H12="00",,CONCATENATE(H12,V12)),I12,V12,SUBSTITUTE(N12," ","_"),V12,D12)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_Luces_del_Recibidor</v>
       </c>
       <c r="U12" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B12,"/Ubicacion","/",C12,"/Areas","/",D12,"/",T12,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Recibidor/Interruptor-doble_Luces_del_Recibidor.svg</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -2193,31 +2188,31 @@
         <v>40</v>
       </c>
       <c r="O13" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F13,".",G13,V13,E13,V13,I13,V13,H13,V13,J13,V13,LEFT(K13,2),V13,B13,V13,D13),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P13" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G13,V13,I13,V13,H13,V13,J13,V13,LEFT(K13,2),V13,D13,V13,B13),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luz_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q13" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D13),V13,(B13),V13,(G13),V13,H13, V13, I13),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Sala_Interior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R13" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H13="00",,CONCATENATE(H13," "))," ",I13," ",N13," ",D13),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Luz de la Sala</v>
       </c>
       <c r="S13" t="str">
-        <f>_xlfn.CONCAT(A13,"/",B13,"/",C13,"/",D13,"/",F13,"/",G13,"/",H13,"/",I13,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T13" t="str">
-        <f>CONCATENATE(G13,V13,IF(H13="00",,CONCATENATE(H13,V13)),I13,V13,SUBSTITUTE(N13," ","_"),V13,D13)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_Luz_de_la_Sala</v>
       </c>
       <c r="U13" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B13,"/Ubicacion","/",C13,"/Areas","/",D13,"/",T13,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_Luz_de_la_Sala.svg</v>
       </c>
       <c r="V13" s="4" t="s">
@@ -2268,31 +2263,31 @@
         <v>40</v>
       </c>
       <c r="O14" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F14,".",G14,V14,E14,V14,I14,V14,H14,V14,J14,V14,LEFT(K14,2),V14,B14,V14,D14),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>switch.interruptor_doble_pared_luz_directa_01_zigbee_01_interior_sala</v>
       </c>
       <c r="P14" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G14,V14,I14,V14,H14,V14,J14,V14,LEFT(K14,2),V14,D14,V14,B14),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Interruptor_doble_Luz_directa_01_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q14" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D14),V14,(B14),V14,(G14),V14,H14, V14, I14),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Sala_Interior_Interruptor_doble_01_Luz_directa</v>
       </c>
       <c r="R14" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H14="00",,CONCATENATE(H14," "))," ",I14," ",N14," ",D14),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v>01  Luz_directa de la Sala</v>
       </c>
       <c r="S14" t="str">
-        <f>_xlfn.CONCAT(A14,"/",B14,"/",C14,"/",D14,"/",F14,"/",G14,"/",H14,"/",I14,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/01/Luz_directa/</v>
       </c>
       <c r="T14" t="str">
-        <f>CONCATENATE(G14,V14,IF(H14="00",,CONCATENATE(H14,V14)),I14,V14,SUBSTITUTE(N14," ","_"),V14,D14)</f>
+        <f t="shared" si="5"/>
         <v>Interruptor-doble_01_Luz_directa_de_la_Sala</v>
       </c>
       <c r="U14" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B14,"/Ubicacion","/",C14,"/Areas","/",D14,"/",T14,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_01_Luz_directa_de_la_Sala.svg</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -2343,31 +2338,31 @@
         <v>40</v>
       </c>
       <c r="O15" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F15,".",G15,V15,E15,V15,I15,V15,H15,V15,J15,V15,LEFT(K15,2),V15,B15,V15,D15),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>sensor.sensor_pared_temperatura_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P15" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G15,V15,I15,V15,H15,V15,J15,V15,LEFT(K15,2),V15,D15,V15,B15),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Sensor_Temperatura_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q15" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D15),V15,(B15),V15,(G15),V15,H15, V15, I15),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Sala_Interior_Sensor_00_Temperatura</v>
       </c>
       <c r="R15" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H15="00",,CONCATENATE(H15," "))," ",I15," ",N15," ",D15),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Temperatura de la Sala</v>
       </c>
       <c r="S15" t="str">
-        <f>_xlfn.CONCAT(A15,"/",B15,"/",C15,"/",D15,"/",F15,"/",G15,"/",H15,"/",I15,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Temperatura/</v>
       </c>
       <c r="T15" t="str">
-        <f>CONCATENATE(G15,V15,IF(H15="00",,CONCATENATE(H15,V15)),I15,V15,SUBSTITUTE(N15," ","_"),V15,D15)</f>
+        <f t="shared" si="5"/>
         <v>Sensor_Temperatura_de_la_Sala</v>
       </c>
       <c r="U15" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B15,"/Ubicacion","/",C15,"/Areas","/",D15,"/",T15,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Temperatura_de_la_Sala.svg</v>
       </c>
       <c r="V15" s="4" t="s">
@@ -2418,31 +2413,31 @@
         <v>40</v>
       </c>
       <c r="O16" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F16,".",G16,V16,E16,V16,I16,V16,H16,V16,J16,V16,LEFT(K16,2),V16,B16,V16,D16),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>sensor.sensor_pared_humedad_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P16" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G16,V16,I16,V16,H16,V16,J16,V16,LEFT(K16,2),V16,D16,V16,B16),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Sensor_Humedad_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q16" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D16),V16,(B16),V16,(G16),V16,H16, V16, I16),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Sala_Interior_Sensor_00_Humedad</v>
       </c>
       <c r="R16" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H16="00",,CONCATENATE(H16," "))," ",I16," ",N16," ",D16),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Humedad de la Sala</v>
       </c>
       <c r="S16" t="str">
-        <f>_xlfn.CONCAT(A16,"/",B16,"/",C16,"/",D16,"/",F16,"/",G16,"/",H16,"/",I16,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Humedad/</v>
       </c>
       <c r="T16" t="str">
-        <f>CONCATENATE(G16,V16,IF(H16="00",,CONCATENATE(H16,V16)),I16,V16,SUBSTITUTE(N16," ","_"),V16,D16)</f>
+        <f t="shared" si="5"/>
         <v>Sensor_Humedad_de_la_Sala</v>
       </c>
       <c r="U16" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B16,"/Ubicacion","/",C16,"/Areas","/",D16,"/",T16,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Humedad_de_la_Sala.svg</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -2493,31 +2488,31 @@
         <v>40</v>
       </c>
       <c r="O17" t="str">
-        <f>LOWER(SUBSTITUTE(CONCATENATE(F17,".",G17,V17,E17,V17,I17,V17,H17,V17,J17,V17,LEFT(K17,2),V17,B17,V17,D17),"-","_"))</f>
+        <f t="shared" si="0"/>
         <v>sensor.sensor_pared_bateria_sensor_th_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P17" t="str">
-        <f>SUBSTITUTE(CONCATENATE(G17,V17,I17,V17,H17,V17,J17,V17,LEFT(K17,2),V17,D17,V17,B17),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>Sensor_Bateria_Sensor_TH_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q17" t="str">
-        <f>SUBSTITUTE(CONCATENATE((D17),V17,(B17),V17,(G17),V17,H17, V17, I17),"-","_")</f>
+        <f t="shared" si="2"/>
         <v>Sala_Interior_Sensor_00_Bateria_Sensor_TH</v>
       </c>
       <c r="R17" t="str">
-        <f>SUBSTITUTE(CONCATENATE(IF(H17="00",,CONCATENATE(H17," "))," ",I17," ",N17," ",D17),"-", " ")</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> Bateria_Sensor_TH de la Sala</v>
       </c>
       <c r="S17" t="str">
-        <f>_xlfn.CONCAT(A17,"/",B17,"/",C17,"/",D17,"/",F17,"/",G17,"/",H17,"/",I17,"/")</f>
+        <f t="shared" si="4"/>
         <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Bateria_Sensor_TH/</v>
       </c>
       <c r="T17" t="str">
-        <f>CONCATENATE(G17,V17,IF(H17="00",,CONCATENATE(H17,V17)),I17,V17,SUBSTITUTE(N17," ","_"),V17,D17)</f>
+        <f t="shared" si="5"/>
         <v>Sensor_Bateria_Sensor_TH_de_la_Sala</v>
       </c>
       <c r="U17" t="str">
-        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B17,"/Ubicacion","/",C17,"/Areas","/",D17,"/",T17,".svg")</f>
+        <f t="shared" si="6"/>
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Bateria_Sensor_TH_de_la_Sala.svg</v>
       </c>
       <c r="V17" s="4" t="s">
@@ -2788,7 +2783,7 @@
       <c r="D1" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="21" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="21" t="s">
@@ -2808,7 +2803,7 @@
       <c r="D2" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="16" t="s">
         <v>157</v>
       </c>
       <c r="G2" t="s">
@@ -2828,7 +2823,7 @@
       <c r="D3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="16" t="s">
         <v>158</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -3635,7 +3630,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3688,14 +3683,14 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>160</v>
+      <c r="A3" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
         <v>135</v>
@@ -3704,16 +3699,16 @@
         <v>37</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3" si="0">_xlfn.CONCAT(A3,"~",E3)</f>
-        <v>create_card_clock~Cocina</v>
+        <f>_xlfn.CONCAT(A3,"~",E3)</f>
+        <v>create_card_scenes_welcome~Cocina</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
-        <v>166</v>
+      <c r="A4" t="s">
+        <v>168</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>157</v>
@@ -3726,18 +3721,18 @@
       </c>
       <c r="F4" t="str">
         <f>_xlfn.CONCAT(A4,"~",E4)</f>
-        <v>create_card_scenes_welcome~Cocina</v>
+        <v>card_group_switch_entities~Cocina</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
         <v>135</v>
@@ -3746,8 +3741,8 @@
         <v>37</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5" si="1">_xlfn.CONCAT(A5,"~",E5)</f>
-        <v>card_group_switch_entities~Cocina</v>
+        <f>_xlfn.CONCAT(A5,"~",E5)</f>
+        <v>create_card_clock~Cocina</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3767,46 +3762,46 @@
         <v>37</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6" si="2">_xlfn.CONCAT(A6,"~",E6)</f>
+        <f>_xlfn.CONCAT(A6,"~",E6)</f>
         <v>create_card_list_of_notes~Cocina</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="F8:F1048576 F1:F6">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="B2:B6" xr:uid="{37AE49D2-9CED-4E6E-9EBC-C46311551CD2}"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="B2:B5 B6" xr:uid="{37AE49D2-9CED-4E6E-9EBC-C46311551CD2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{F02249E7-15AC-41DC-8A5E-CC9ECC2BC7BD}">
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>D2:D5 D6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{E5F6FFA7-9561-46C7-8026-03E748D14487}">
           <x14:formula1>
             <xm:f>AreasSK!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E6</xm:sqref>
+          <xm:sqref>E2:E5 E6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{C5473ADE-DC07-49B2-A82F-62EEC8FC8C54}">
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C6</xm:sqref>
+          <xm:sqref>C2:C5 C6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{7986FA5B-1C52-49BD-98F6-A9B7A99D71BA}">
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A6</xm:sqref>
+          <xm:sqref>A2:A5 A6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/plantilla/datos.xlsx
+++ b/plantilla/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMPORAL-STALYN\IOT\Clientes\1722439120_Stalyn_Quishpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0862185A-C4A5-4F63-9F53-9C960B5A0D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DCB225-D6A4-4DE1-BE05-9DD429D4128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entidades!$B$1:$V$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -213,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="181">
   <si>
     <t>domain</t>
   </si>
@@ -699,9 +698,6 @@
     <t>orden_view</t>
   </si>
   <si>
-    <t>Luz_directa</t>
-  </si>
-  <si>
     <t>POSICION_EN_VIEW</t>
   </si>
   <si>
@@ -766,6 +762,18 @@
   </si>
   <si>
     <t>Bateria_Sensor_TH</t>
+  </si>
+  <si>
+    <t>create_card_temperature_and_humedity_sensor</t>
+  </si>
+  <si>
+    <t>Luz directa</t>
+  </si>
+  <si>
+    <t>Motor-Cortina</t>
+  </si>
+  <si>
+    <t>M_Cortina</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1238,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2245,7 +2253,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>77</v>
@@ -2264,31 +2272,31 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="0"/>
-        <v>switch.interruptor_doble_pared_luz_directa_01_zigbee_01_interior_sala</v>
+        <v>switch.interruptor_doble_pared_luz directa_01_zigbee_01_interior_sala</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="1"/>
-        <v>Interruptor_doble_Luz_directa_01_zigbee_01_Sala_Interior</v>
+        <v>Interruptor_doble_Luz directa_01_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="2"/>
-        <v>Sala_Interior_Interruptor_doble_01_Luz_directa</v>
+        <v>Sala_Interior_Interruptor_doble_01_Luz directa</v>
       </c>
       <c r="R14" t="str">
         <f t="shared" si="3"/>
-        <v>01  Luz_directa de la Sala</v>
+        <v>01  Luz directa de la Sala</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/01/Luz_directa/</v>
+        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/01/Luz directa/</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="5"/>
-        <v>Interruptor-doble_01_Luz_directa_de_la_Sala</v>
+        <v>Interruptor-doble_01_Luz directa_de_la_Sala</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_01_Luz_directa_de_la_Sala.svg</v>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_01_Luz directa_de_la_Sala.svg</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>10</v>
@@ -2339,31 +2347,31 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="0"/>
-        <v>sensor.sensor_pared_temperatura_00_zigbee_01_interior_sala</v>
+        <v>sensor.sensor_pared_humedad_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="1"/>
-        <v>Sensor_Temperatura_00_zigbee_01_Sala_Interior</v>
+        <v>Sensor_Humedad_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="2"/>
-        <v>Sala_Interior_Sensor_00_Temperatura</v>
+        <v>Sala_Interior_Sensor_00_Humedad</v>
       </c>
       <c r="R15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Temperatura de la Sala</v>
+        <v xml:space="preserve"> Humedad de la Sala</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Temperatura/</v>
+        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Humedad/</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="5"/>
-        <v>Sensor_Temperatura_de_la_Sala</v>
+        <v>Sensor_Humedad_de_la_Sala</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Temperatura_de_la_Sala.svg</v>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Humedad_de_la_Sala.svg</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>10</v>
@@ -2395,7 +2403,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>77</v>
@@ -2414,31 +2422,31 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="0"/>
-        <v>sensor.sensor_pared_humedad_00_zigbee_01_interior_sala</v>
+        <v>sensor.sensor_pared_temperatura_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="1"/>
-        <v>Sensor_Humedad_00_zigbee_01_Sala_Interior</v>
+        <v>Sensor_Temperatura_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="2"/>
-        <v>Sala_Interior_Sensor_00_Humedad</v>
+        <v>Sala_Interior_Sensor_00_Temperatura</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Humedad de la Sala</v>
+        <v xml:space="preserve"> Temperatura de la Sala</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Humedad/</v>
+        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Temperatura/</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="5"/>
-        <v>Sensor_Humedad_de_la_Sala</v>
+        <v>Sensor_Temperatura_de_la_Sala</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Humedad_de_la_Sala.svg</v>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Temperatura_de_la_Sala.svg</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>10</v>
@@ -2470,7 +2478,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>77</v>
@@ -2516,6 +2524,81 @@
         <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Bateria_Sensor_TH_de_la_Sala.svg</v>
       </c>
       <c r="V17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" ref="O18" si="7">LOWER(SUBSTITUTE(CONCATENATE(F18,".",G18,V18,E18,V18,I18,V18,H18,V18,J18,V18,LEFT(K18,2),V18,B18,V18,D18),"-","_"))</f>
+        <v>cover.motor_cortina_pared_m_cortina_00_zigbee_01_interior_estudio</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" ref="P18" si="8">SUBSTITUTE(CONCATENATE(G18,V18,I18,V18,H18,V18,J18,V18,LEFT(K18,2),V18,D18,V18,B18),"-","_")</f>
+        <v>Motor_Cortina_M_Cortina_00_zigbee_01_Estudio_Interior</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ref="Q18" si="9">SUBSTITUTE(CONCATENATE((D18),V18,(B18),V18,(G18),V18,H18, V18, I18),"-","_")</f>
+        <v>Estudio_Interior_Motor_Cortina_00_M_Cortina</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" ref="R18" si="10">SUBSTITUTE(CONCATENATE(IF(H18="00",,CONCATENATE(H18," "))," ",I18," ",N18," ",D18),"-", " ")</f>
+        <v xml:space="preserve"> M_Cortina del Estudio</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" ref="S18" si="11">_xlfn.CONCAT(A18,"/",B18,"/",C18,"/",D18,"/",F18,"/",G18,"/",H18,"/",I18,"/")</f>
+        <v>Casa/Interior/Segunda-planta/Estudio/cover/Motor-Cortina/00/M_Cortina/</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" ref="T18" si="12">CONCATENATE(G18,V18,IF(H18="00",,CONCATENATE(H18,V18)),I18,V18,SUBSTITUTE(N18," ","_"),V18,D18)</f>
+        <v>Motor-Cortina_M_Cortina_del_Estudio</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" ref="U18" si="13">_xlfn.CONCAT("/local/ismart/planos/Zonas/",B18,"/Ubicacion","/",C18,"/Areas","/",D18,"/",T18,".svg")</f>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Motor-Cortina_M_Cortina_del_Estudio.svg</v>
+      </c>
+      <c r="V18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2534,11 +2617,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39826518-181E-4705-8E10-895592D5D3B6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{820B1DE8-0DFF-43CE-87BC-815AA122B86A}">
           <x14:formula1>
-            <xm:f>AreasSK!$A$2:$A$32</xm:f>
+            <xm:f>AreasSK!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D17</xm:sqref>
+          <xm:sqref>D8 D10:D11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D45CE4A7-E42B-4756-998A-3C7CEDAE1670}">
           <x14:formula1>
@@ -2546,59 +2629,59 @@
           </x14:formula1>
           <xm:sqref>D2:D7</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39826518-181E-4705-8E10-895592D5D3B6}">
+          <x14:formula1>
+            <xm:f>AreasSK!$A$2:$A$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>D9:D18</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9886CA0-ABF7-4DEF-981A-938147170D13}">
           <x14:formula1>
             <xm:f>Zona!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B17</xm:sqref>
+          <xm:sqref>B2:B18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D7E912A-9EEA-4A7E-BA71-EB1AE0E4ADA5}">
           <x14:formula1>
-            <xm:f>Type!$A$2:$A$22</xm:f>
+            <xm:f>Type!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G17</xm:sqref>
+          <xm:sqref>G2:G18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9CBB5A09-5E5C-407E-BA26-A7699A10D719}">
           <x14:formula1>
             <xm:f>LocationDevice!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E17</xm:sqref>
+          <xm:sqref>E2:E18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{46FF9668-8E5B-4F69-99AC-869AA36609B8}">
           <x14:formula1>
             <xm:f>Ubicacion!$A$2:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C17</xm:sqref>
+          <xm:sqref>C2:C18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E02A4412-B018-4DF2-8E88-469CB105D9E7}">
           <x14:formula1>
             <xm:f>Technology!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J17</xm:sqref>
+          <xm:sqref>J2:J18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00765230-EFF7-4A9F-8655-D4A0D5B527BE}">
           <x14:formula1>
             <xm:f>Importance!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{820B1DE8-0DFF-43CE-87BC-815AA122B86A}">
-          <x14:formula1>
-            <xm:f>AreasSK!$A$2:$A$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>D8 D10:D11</xm:sqref>
+          <xm:sqref>K2:K18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60A29141-6D71-45D0-B030-450CD38D68A6}">
           <x14:formula1>
-            <xm:f>Nombre_Entidades!$A$2:$A$7</xm:f>
+            <xm:f>Nombre_Entidades!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I17</xm:sqref>
+          <xm:sqref>I2:I18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE8FA183-60B6-45C4-9BE0-181207916F32}">
           <x14:formula1>
             <xm:f>Domain!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F17</xm:sqref>
+          <xm:sqref>F2:F18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2700,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD521F66-7339-4766-87AE-20EB5EAC51B7}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -2728,24 +2811,29 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2757,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6369E091-0E04-40BB-909D-8136BCC61440}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2767,7 +2855,7 @@
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
@@ -2784,10 +2872,10 @@
         <v>153</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2804,10 +2892,10 @@
         <v>143</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2824,10 +2912,10 @@
         <v>144</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2837,10 +2925,10 @@
       <c r="C4" s="26"/>
       <c r="D4" s="16"/>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2849,7 +2937,7 @@
       </c>
       <c r="D5" s="16"/>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2858,18 +2946,22 @@
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="25" t="s">
         <v>103</v>
       </c>
+      <c r="G7" s="16" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="25" t="s">
         <v>104</v>
       </c>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="25" t="s">
@@ -3179,7 +3271,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
         <v>95</v>
@@ -3196,7 +3288,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
         <v>95</v>
@@ -3213,7 +3305,7 @@
         <v>106</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
         <v>96</v>
@@ -3230,7 +3322,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
         <v>95</v>
@@ -3627,10 +3719,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3643,33 +3735,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>165</v>
-      </c>
       <c r="F1" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
@@ -3678,19 +3770,19 @@
         <v>37</v>
       </c>
       <c r="F2" t="str">
-        <f>_xlfn.CONCAT(A2,"~",E2)</f>
+        <f t="shared" ref="F2:F11" si="0">_xlfn.CONCAT(A2,"~",E2)</f>
         <v>create_card_title_welcome_smart~Cocina</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
         <v>135</v>
@@ -3699,19 +3791,19 @@
         <v>37</v>
       </c>
       <c r="F3" t="str">
-        <f>_xlfn.CONCAT(A3,"~",E3)</f>
+        <f t="shared" si="0"/>
         <v>create_card_scenes_welcome~Cocina</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>168</v>
+      <c r="A4" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
         <v>135</v>
@@ -3720,19 +3812,19 @@
         <v>37</v>
       </c>
       <c r="F4" t="str">
-        <f>_xlfn.CONCAT(A4,"~",E4)</f>
+        <f t="shared" si="0"/>
         <v>card_group_switch_entities~Cocina</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
         <v>135</v>
@@ -3741,19 +3833,19 @@
         <v>37</v>
       </c>
       <c r="F5" t="str">
-        <f>_xlfn.CONCAT(A5,"~",E5)</f>
+        <f t="shared" si="0"/>
         <v>create_card_clock~Cocina</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
         <v>135</v>
@@ -3762,46 +3854,151 @@
         <v>37</v>
       </c>
       <c r="F6" t="str">
-        <f>_xlfn.CONCAT(A6,"~",E6)</f>
+        <f t="shared" si="0"/>
         <v>create_card_list_of_notes~Cocina</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>create_card_title_welcome_smart~Sala</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>create_card_temperature_and_humedity_sensor~Sala</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>create_card_clock~Sala</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>create_card_scenes_welcome~Sala</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>card_group_switch_entities~Sala</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:F1048576 F1:F6">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="B2:B5 B6" xr:uid="{37AE49D2-9CED-4E6E-9EBC-C46311551CD2}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="B2:B11" xr:uid="{37AE49D2-9CED-4E6E-9EBC-C46311551CD2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{F02249E7-15AC-41DC-8A5E-CC9ECC2BC7BD}">
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D5 D6</xm:sqref>
+          <xm:sqref>D2:D11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{E5F6FFA7-9561-46C7-8026-03E748D14487}">
           <x14:formula1>
             <xm:f>AreasSK!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E5 E6</xm:sqref>
+          <xm:sqref>E2:E11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{C5473ADE-DC07-49B2-A82F-62EEC8FC8C54}">
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C5 C6</xm:sqref>
+          <xm:sqref>C2:C11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{7986FA5B-1C52-49BD-98F6-A9B7A99D71BA}">
           <x14:formula1>
-            <xm:f>'Datos ComboBox'!$G$2:$G$6</xm:f>
+            <xm:f>'Datos ComboBox'!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A5 A6</xm:sqref>
+          <xm:sqref>A2:A11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3952,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C995BE-9AFD-4F24-9038-2BC0697FD49C}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4011,6 +4208,11 @@
     <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/plantilla/datos.xlsx
+++ b/plantilla/datos.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMPORAL-STALYN\IOT\Clientes\1722439120_Stalyn_Quishpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DCB225-D6A4-4DE1-BE05-9DD429D4128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8390587F-0E82-40C1-BE14-BAB597D3957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Entidades" sheetId="12" r:id="rId1"/>
-    <sheet name="AreasSK" sheetId="9" r:id="rId2"/>
-    <sheet name="Ubicacion" sheetId="15" r:id="rId3"/>
-    <sheet name="Personas" sheetId="14" r:id="rId4"/>
-    <sheet name="Cards_order_in_view" sheetId="20" r:id="rId5"/>
-    <sheet name="Zona" sheetId="3" r:id="rId6"/>
-    <sheet name="Domain" sheetId="5" r:id="rId7"/>
-    <sheet name="Type" sheetId="6" r:id="rId8"/>
-    <sheet name="LocationDevice" sheetId="7" r:id="rId9"/>
-    <sheet name="Technology" sheetId="8" r:id="rId10"/>
-    <sheet name="Importance" sheetId="13" r:id="rId11"/>
-    <sheet name="Nombre_Entidades" sheetId="18" r:id="rId12"/>
-    <sheet name="Datos ComboBox" sheetId="17" r:id="rId13"/>
-    <sheet name="Scenes_config" sheetId="19" r:id="rId14"/>
-    <sheet name="Leyenda" sheetId="2" r:id="rId15"/>
+    <sheet name="Configuracion" sheetId="21" r:id="rId1"/>
+    <sheet name="Entidades" sheetId="12" r:id="rId2"/>
+    <sheet name="AreasSK" sheetId="9" r:id="rId3"/>
+    <sheet name="Ubicacion" sheetId="15" r:id="rId4"/>
+    <sheet name="Personas" sheetId="14" r:id="rId5"/>
+    <sheet name="Cards_order_in_view" sheetId="20" r:id="rId6"/>
+    <sheet name="Zona" sheetId="3" r:id="rId7"/>
+    <sheet name="Domain" sheetId="5" r:id="rId8"/>
+    <sheet name="Type" sheetId="6" r:id="rId9"/>
+    <sheet name="LocationDevice" sheetId="7" r:id="rId10"/>
+    <sheet name="Technology" sheetId="8" r:id="rId11"/>
+    <sheet name="Importance" sheetId="13" r:id="rId12"/>
+    <sheet name="Nombre_Entidades" sheetId="18" r:id="rId13"/>
+    <sheet name="Datos ComboBox" sheetId="17" r:id="rId14"/>
+    <sheet name="Scenes_config" sheetId="19" r:id="rId15"/>
+    <sheet name="Leyenda" sheetId="2" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Entidades!$B$1:$V$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Entidades!$B$1:$V$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="201">
   <si>
     <t>domain</t>
   </si>
@@ -774,6 +775,66 @@
   </si>
   <si>
     <t>M_Cortina</t>
+  </si>
+  <si>
+    <t>mdi:washing-machine</t>
+  </si>
+  <si>
+    <t>NombreCasa</t>
+  </si>
+  <si>
+    <t>Configuracion</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>ServerPort</t>
+  </si>
+  <si>
+    <t>-0.3261465</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>CAMBIAR NOMBRE</t>
+  </si>
+  <si>
+    <t>America/Guayaquil</t>
+  </si>
+  <si>
+    <t>Nombre de la casa</t>
+  </si>
+  <si>
+    <t>Puerto en donde se va desplegar smart home por defecto 8123</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>DUCKDNS</t>
+  </si>
+  <si>
+    <t>GODADDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El DNS que se va a utilizar para el despliegue </t>
+  </si>
+  <si>
+    <t>Ubicación Casa, colocar el valor entre comillas simples</t>
+  </si>
+  <si>
+    <t>-78.5358938</t>
   </si>
 </sst>
 </file>
@@ -917,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -966,11 +1027,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1231,14 +1309,718 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF061DC1-81C9-4CED-B9DF-1C6D0A62A6FF}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="63.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="23">
+        <v>8124</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B6">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{48494DEE-E081-4C02-8009-5B3BA07C0092}">
+          <x14:formula1>
+            <xm:f>'Datos ComboBox'!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DE2E24-C651-4BC6-99A4-AC86854674C1}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
+    <sortCondition ref="A2:A4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795E1D1-AEFB-4BA2-85DE-EA1F172FA954}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021641D4-885E-4CBC-B3B6-61C30772A54B}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD521F66-7339-4766-87AE-20EB5EAC51B7}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6369E091-0E04-40BB-909D-8136BCC61440}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="16"/>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="G5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="G2" xr:uid="{68475AB6-6090-4CA7-AF87-A5D4EC6E7D68}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B077E1-37B3-4FBB-9A26-0E96A61E0B94}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="16">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="16">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="16">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0BB63B2D-9C7D-4DFB-8642-3E6935599FB4}">
+          <x14:formula1>
+            <xm:f>'Datos ComboBox'!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:E6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="62.625" customWidth="1"/>
+    <col min="13" max="13" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="102.75" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="19" spans="14:16" ht="15" customHeight="1">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B10734-1E37-4291-B997-CF32DE7E84C6}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1371,23 +2153,23 @@
         <v>9</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O17" si="0">LOWER(SUBSTITUTE(CONCATENATE(F2,".",G2,V2,E2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,B2,V2,D2),"-","_"))</f>
+        <f t="shared" ref="O2:O18" si="0">LOWER(SUBSTITUTE(CONCATENATE(F2,".",G2,V2,E2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,B2,V2,D2),"-","_"))</f>
         <v>switch.interruptor_doble_pared_luz_00_wifi_01_exterior_gradas_planta_baja_a_segunda_planta</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P17" si="1">SUBSTITUTE(CONCATENATE(G2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,D2,V2,B2),"-","_")</f>
+        <f t="shared" ref="P2:P18" si="1">SUBSTITUTE(CONCATENATE(G2,V2,I2,V2,H2,V2,J2,V2,LEFT(K2,2),V2,D2,V2,B2),"-","_")</f>
         <v>Interruptor_doble_Luz_00_wifi_01_Gradas_planta_baja_a_segunda_planta_Exterior</v>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q17" si="2">SUBSTITUTE(CONCATENATE((D2),V2,(B2),V2,(G2),V2,H2, V2, I2),"-","_")</f>
+        <f t="shared" ref="Q2:Q18" si="2">SUBSTITUTE(CONCATENATE((D2),V2,(B2),V2,(G2),V2,H2, V2, I2),"-","_")</f>
         <v>Gradas_planta_baja_a_segunda_planta_Exterior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R2" t="str">
-        <f t="shared" ref="R2:R17" si="3">SUBSTITUTE(CONCATENATE(IF(H2="00",,CONCATENATE(H2," "))," ",I2," ",N2," ",D2),"-", " ")</f>
+        <f t="shared" ref="R2:R18" si="3">SUBSTITUTE(CONCATENATE(IF(H2="00",,CONCATENATE(H2," "))," ",I2," ",N2," ",D2),"-", " ")</f>
         <v xml:space="preserve"> Luz del Gradas planta baja a segunda planta</v>
       </c>
       <c r="S2" t="str">
-        <f t="shared" ref="S2:S17" si="4">_xlfn.CONCAT(A2,"/",B2,"/",C2,"/",D2,"/",F2,"/",G2,"/",H2,"/",I2,"/")</f>
+        <f t="shared" ref="S2:S18" si="4">_xlfn.CONCAT(A2,"/",B2,"/",C2,"/",D2,"/",F2,"/",G2,"/",H2,"/",I2,"/")</f>
         <v>Casa/Exterior/Planta-baja/Gradas-planta-baja-a-segunda-planta/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T2" t="str">
@@ -1466,7 +2248,7 @@
         <v>Casa/Exterior/Planta-baja/Lavanderia/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T17" si="5">CONCATENATE(G3,V3,IF(H3="00",,CONCATENATE(H3,V3)),I3,V3,SUBSTITUTE(N3," ","_"),V3,D3)</f>
+        <f t="shared" ref="T3:T18" si="5">CONCATENATE(G3,V3,IF(H3="00",,CONCATENATE(H3,V3)),I3,V3,SUBSTITUTE(N3," ","_"),V3,D3)</f>
         <v>Interruptor-doble_Luz_de_la_Lavanderia</v>
       </c>
       <c r="U3" t="str">
@@ -1644,16 +2426,16 @@
         <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>77</v>
@@ -1671,32 +2453,32 @@
         <v>40</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="0"/>
-        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_exterior_terraza</v>
+        <f t="shared" ref="O6" si="6">LOWER(SUBSTITUTE(CONCATENATE(F6,".",G6,V6,E6,V6,I6,V6,H6,V6,J6,V6,LEFT(K6,2),V6,B6,V6,D6),"-","_"))</f>
+        <v>sensor.sensor_pared_temperatura_00_zigbee_01_exterior_terraza</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="1"/>
-        <v>Interruptor_doble_Luces_00_zigbee_01_Terraza_Exterior</v>
+        <f t="shared" ref="P6" si="7">SUBSTITUTE(CONCATENATE(G6,V6,I6,V6,H6,V6,J6,V6,LEFT(K6,2),V6,D6,V6,B6),"-","_")</f>
+        <v>Sensor_Temperatura_00_zigbee_01_Terraza_Exterior</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="2"/>
-        <v>Terraza_Exterior_Interruptor_doble_00_Luces</v>
+        <f t="shared" ref="Q6" si="8">SUBSTITUTE(CONCATENATE((D6),V6,(B6),V6,(G6),V6,H6, V6, I6),"-","_")</f>
+        <v>Terraza_Exterior_Sensor_00_Temperatura</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Luces de la Terraza</v>
+        <f t="shared" ref="R6" si="9">SUBSTITUTE(CONCATENATE(IF(H6="00",,CONCATENATE(H6," "))," ",I6," ",N6," ",D6),"-", " ")</f>
+        <v xml:space="preserve"> Temperatura de la Terraza</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="4"/>
-        <v>Casa/Exterior/Tercera-planta/Terraza/switch/Interruptor-doble/00/Luces/</v>
+        <f t="shared" ref="S6" si="10">_xlfn.CONCAT(A6,"/",B6,"/",C6,"/",D6,"/",F6,"/",G6,"/",H6,"/",I6,"/")</f>
+        <v>Casa/Exterior/Tercera-planta/Terraza/sensor/Sensor/00/Temperatura/</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="5"/>
-        <v>Interruptor-doble_Luces_de_la_Terraza</v>
+        <f t="shared" ref="T6" si="11">CONCATENATE(G6,V6,IF(H6="00",,CONCATENATE(H6,V6)),I6,V6,SUBSTITUTE(N6," ","_"),V6,D6)</f>
+        <v>Sensor_Temperatura_de_la_Terraza</v>
       </c>
       <c r="U6" t="str">
         <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B6,"/Ubicacion","/",C6,"/Areas","/",D6,"/",T7,".svg")</f>
-        <v>/local/ismart/planos/Zonas/Exterior/Ubicacion/Tercera-planta/Areas/Terraza/Interruptor-doble_Luces_del_Banio.svg</v>
+        <v>/local/ismart/planos/Zonas/Exterior/Ubicacion/Tercera-planta/Areas/Terraza/Interruptor-doble_Luces_de_la_Terraza.svg</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>10</v>
@@ -1707,13 +2489,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>42</v>
@@ -1724,7 +2506,7 @@
       <c r="G7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="19" t="s">
@@ -1742,36 +2524,36 @@
       <c r="M7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>9</v>
+      <c r="N7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
-        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_banio</v>
+        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_exterior_terraza</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
-        <v>Interruptor_doble_Luces_00_zigbee_01_Banio_Interior</v>
+        <v>Interruptor_doble_Luces_00_zigbee_01_Terraza_Exterior</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="2"/>
-        <v>Banio_Interior_Interruptor_doble_00_Luces</v>
+        <v>Terraza_Exterior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Luces del Banio</v>
+        <v xml:space="preserve"> Luces de la Terraza</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Banio/switch/Interruptor-doble/00/Luces/</v>
+        <v>Casa/Exterior/Tercera-planta/Terraza/switch/Interruptor-doble/00/Luces/</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="5"/>
-        <v>Interruptor-doble_Luces_del_Banio</v>
+        <v>Interruptor-doble_Luces_de_la_Terraza</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" ref="U7:U17" si="6">_xlfn.CONCAT("/local/ismart/planos/Zonas/",B7,"/Ubicacion","/",C7,"/Areas","/",D7,"/",T7,".svg")</f>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Banio/Interruptor-doble_Luces_del_Banio.svg</v>
+        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B7,"/Ubicacion","/",C7,"/Areas","/",D7,"/",T8,".svg")</f>
+        <v>/local/ismart/planos/Zonas/Exterior/Ubicacion/Tercera-planta/Areas/Terraza/Interruptor-doble_Luces_del_Banio.svg</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>10</v>
@@ -1784,11 +2566,11 @@
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>42</v>
@@ -1799,7 +2581,7 @@
       <c r="G8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="19" t="s">
@@ -1817,36 +2599,36 @@
       <c r="M8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
-        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_cocina</v>
+        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_banio</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="1"/>
-        <v>Interruptor_doble_Luces_00_zigbee_01_Cocina_Interior</v>
+        <v>Interruptor_doble_Luces_00_zigbee_01_Banio_Interior</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="2"/>
-        <v>Cocina_Interior_Interruptor_doble_00_Luces</v>
+        <v>Banio_Interior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Luces del Cocina</v>
+        <v xml:space="preserve"> Luces del Banio</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Cocina/switch/Interruptor-doble/00/Luces/</v>
+        <v>Casa/Interior/Segunda-planta/Banio/switch/Interruptor-doble/00/Luces/</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="5"/>
-        <v>Interruptor-doble_Luces_del_Cocina</v>
+        <v>Interruptor-doble_Luces_del_Banio</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Cocina/Interruptor-doble_Luces_del_Cocina.svg</v>
+        <f t="shared" ref="U8:U18" si="12">_xlfn.CONCAT("/local/ismart/planos/Zonas/",B8,"/Ubicacion","/",C8,"/Areas","/",D8,"/",T8,".svg")</f>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Banio/Interruptor-doble_Luces_del_Banio.svg</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>10</v>
@@ -1863,7 +2645,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>42</v>
@@ -1878,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>77</v>
@@ -1892,36 +2674,36 @@
       <c r="M9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>83</v>
+      <c r="N9" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
-        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_cuarto_squishpe</v>
+        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_cocina</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="1"/>
-        <v>Interruptor_doble_Luz_00_zigbee_01_Cuarto_squishpe_Interior</v>
+        <v>Interruptor_doble_Luces_00_zigbee_01_Cocina_Interior</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="2"/>
-        <v>Cuarto_squishpe_Interior_Interruptor_doble_00_Luz</v>
+        <v>Cocina_Interior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Luz desde Cuarto squishpe</v>
+        <v xml:space="preserve"> Luces del Cocina</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Cuarto-squishpe/switch/Interruptor-doble/00/Luz/</v>
+        <v>Casa/Interior/Segunda-planta/Cocina/switch/Interruptor-doble/00/Luces/</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="5"/>
-        <v>Interruptor-doble_Luz_desde_Cuarto-squishpe</v>
+        <v>Interruptor-doble_Luces_del_Cocina</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Cuarto-squishpe/Interruptor-doble_Luz_desde_Cuarto-squishpe.svg</v>
+        <f t="shared" si="12"/>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Cocina/Interruptor-doble_Luces_del_Cocina.svg</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>10</v>
@@ -1938,16 +2720,16 @@
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>8</v>
@@ -1968,35 +2750,35 @@
         <v>17</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>switch.interruptor_simple_techo_luz_00_zigbee_01_interior_estudio</v>
+        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_cuarto_squishpe</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
-        <v>Interruptor_simple_Luz_00_zigbee_01_Estudio_Interior</v>
+        <v>Interruptor_doble_Luz_00_zigbee_01_Cuarto_squishpe_Interior</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="2"/>
-        <v>Estudio_Interior_Interruptor_simple_00_Luz</v>
+        <v>Cuarto_squishpe_Interior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Luz del Estudio</v>
+        <v xml:space="preserve"> Luz desde Cuarto squishpe</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Estudio/switch/Interruptor-simple/00/Luz/</v>
+        <v>Casa/Interior/Segunda-planta/Cuarto-squishpe/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="5"/>
-        <v>Interruptor-simple_Luz_del_Estudio</v>
+        <v>Interruptor-doble_Luz_desde_Cuarto-squishpe</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Interruptor-simple_Luz_del_Estudio.svg</v>
+        <f t="shared" si="12"/>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Cuarto-squishpe/Interruptor-doble_Luz_desde_Cuarto-squishpe.svg</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>10</v>
@@ -2016,13 +2798,13 @@
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>8</v>
@@ -2043,35 +2825,35 @@
         <v>17</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
-        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_estudio</v>
+        <v>switch.interruptor_simple_techo_luz_00_zigbee_01_interior_estudio</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
-        <v>Interruptor_doble_Luz_00_zigbee_01_Estudio_Interior</v>
+        <v>Interruptor_simple_Luz_00_zigbee_01_Estudio_Interior</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="2"/>
-        <v>Estudio_Interior_Interruptor_doble_00_Luz</v>
+        <v>Estudio_Interior_Interruptor_simple_00_Luz</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Luz desde Estudio</v>
+        <v xml:space="preserve"> Luz del Estudio</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Estudio/switch/Interruptor-doble/00/Luz/</v>
+        <v>Casa/Interior/Segunda-planta/Estudio/switch/Interruptor-simple/00/Luz/</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="5"/>
-        <v>Interruptor-doble_Luz_desde_Estudio</v>
+        <v>Interruptor-simple_Luz_del_Estudio</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Interruptor-doble_Luz_desde_Estudio.svg</v>
+        <f t="shared" si="12"/>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Interruptor-simple_Luz_del_Estudio.svg</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>10</v>
@@ -2087,23 +2869,23 @@
       <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>82</v>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>77</v>
@@ -2121,32 +2903,32 @@
         <v>9</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="0"/>
-        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_recibidor</v>
+        <f>LOWER(SUBSTITUTE(CONCATENATE(F12,".",G12,V12,E12,V12,I12,V12,H12,V12,J12,V12,LEFT(K12,2),V12,B12,V12,D12),"-","_"))</f>
+        <v>cover.motor_cortina_pared_m_cortina_00_zigbee_01_interior_estudio</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="1"/>
-        <v>Interruptor_doble_Luces_00_zigbee_01_Recibidor_Interior</v>
+        <f>SUBSTITUTE(CONCATENATE(G12,V12,I12,V12,H12,V12,J12,V12,LEFT(K12,2),V12,D12,V12,B12),"-","_")</f>
+        <v>Motor_Cortina_M_Cortina_00_zigbee_01_Estudio_Interior</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="2"/>
-        <v>Recibidor_Interior_Interruptor_doble_00_Luces</v>
+        <f>SUBSTITUTE(CONCATENATE((D12),V12,(B12),V12,(G12),V12,H12, V12, I12),"-","_")</f>
+        <v>Estudio_Interior_Motor_Cortina_00_M_Cortina</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Luces del Recibidor</v>
+        <f>SUBSTITUTE(CONCATENATE(IF(H12="00",,CONCATENATE(H12," "))," ",I12," ",N12," ",D12),"-", " ")</f>
+        <v xml:space="preserve"> M_Cortina del Estudio</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Recibidor/switch/Interruptor-doble/00/Luces/</v>
+        <f>_xlfn.CONCAT(A12,"/",B12,"/",C12,"/",D12,"/",F12,"/",G12,"/",H12,"/",I12,"/")</f>
+        <v>Casa/Interior/Segunda-planta/Estudio/cover/Motor-Cortina/00/M_Cortina/</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="5"/>
-        <v>Interruptor-doble_Luces_del_Recibidor</v>
+        <f>CONCATENATE(G12,V12,IF(H12="00",,CONCATENATE(H12,V12)),I12,V12,SUBSTITUTE(N12," ","_"),V12,D12)</f>
+        <v>Motor-Cortina_M_Cortina_del_Estudio</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Recibidor/Interruptor-doble_Luces_del_Recibidor.svg</v>
+        <f>_xlfn.CONCAT("/local/ismart/planos/Zonas/",B12,"/Ubicacion","/",C12,"/Areas","/",D12,"/",T12,".svg")</f>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Motor-Cortina_M_Cortina_del_Estudio.svg</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>10</v>
@@ -2162,8 +2944,8 @@
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
+      <c r="D13" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>42</v>
@@ -2174,11 +2956,11 @@
       <c r="G13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>77</v>
@@ -2193,35 +2975,35 @@
         <v>17</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
-        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_sala</v>
+        <v>switch.interruptor_doble_pared_luces_00_zigbee_01_interior_recibidor</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="1"/>
-        <v>Interruptor_doble_Luz_00_zigbee_01_Sala_Interior</v>
+        <v>Interruptor_doble_Luces_00_zigbee_01_Recibidor_Interior</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="2"/>
-        <v>Sala_Interior_Interruptor_doble_00_Luz</v>
+        <v>Recibidor_Interior_Interruptor_doble_00_Luces</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Luz de la Sala</v>
+        <v xml:space="preserve"> Luces del Recibidor</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/00/Luz/</v>
+        <v>Casa/Interior/Segunda-planta/Recibidor/switch/Interruptor-doble/00/Luces/</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="5"/>
-        <v>Interruptor-doble_Luz_de_la_Sala</v>
+        <v>Interruptor-doble_Luces_del_Recibidor</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_Luz_de_la_Sala.svg</v>
+        <f t="shared" si="12"/>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Recibidor/Interruptor-doble_Luces_del_Recibidor.svg</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>10</v>
@@ -2250,10 +3032,10 @@
         <v>44</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>77</v>
@@ -2272,31 +3054,31 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="0"/>
-        <v>switch.interruptor_doble_pared_luz directa_01_zigbee_01_interior_sala</v>
+        <v>switch.interruptor_doble_pared_luz_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="1"/>
-        <v>Interruptor_doble_Luz directa_01_zigbee_01_Sala_Interior</v>
+        <v>Interruptor_doble_Luz_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="2"/>
-        <v>Sala_Interior_Interruptor_doble_01_Luz directa</v>
+        <v>Sala_Interior_Interruptor_doble_00_Luz</v>
       </c>
       <c r="R14" t="str">
         <f t="shared" si="3"/>
-        <v>01  Luz directa de la Sala</v>
+        <v xml:space="preserve"> Luz de la Sala</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/01/Luz directa/</v>
+        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/00/Luz/</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="5"/>
-        <v>Interruptor-doble_01_Luz directa_de_la_Sala</v>
+        <v>Interruptor-doble_Luz_de_la_Sala</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_01_Luz directa_de_la_Sala.svg</v>
+        <f t="shared" si="12"/>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_Luz_de_la_Sala.svg</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>10</v>
@@ -2319,16 +3101,16 @@
         <v>42</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>77</v>
@@ -2347,31 +3129,31 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="0"/>
-        <v>sensor.sensor_pared_humedad_00_zigbee_01_interior_sala</v>
+        <v>switch.interruptor_doble_pared_luz directa_01_zigbee_01_interior_sala</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="1"/>
-        <v>Sensor_Humedad_00_zigbee_01_Sala_Interior</v>
+        <v>Interruptor_doble_Luz directa_01_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="2"/>
-        <v>Sala_Interior_Sensor_00_Humedad</v>
+        <v>Sala_Interior_Interruptor_doble_01_Luz directa</v>
       </c>
       <c r="R15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Humedad de la Sala</v>
+        <v>01  Luz directa de la Sala</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Humedad/</v>
+        <v>Casa/Interior/Segunda-planta/Sala/switch/Interruptor-doble/01/Luz directa/</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="5"/>
-        <v>Sensor_Humedad_de_la_Sala</v>
+        <v>Interruptor-doble_01_Luz directa_de_la_Sala</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Humedad_de_la_Sala.svg</v>
+        <f t="shared" si="12"/>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Interruptor-doble_01_Luz directa_de_la_Sala.svg</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>10</v>
@@ -2403,7 +3185,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>77</v>
@@ -2422,31 +3204,31 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="0"/>
-        <v>sensor.sensor_pared_temperatura_00_zigbee_01_interior_sala</v>
+        <v>sensor.sensor_pared_humedad_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="1"/>
-        <v>Sensor_Temperatura_00_zigbee_01_Sala_Interior</v>
+        <v>Sensor_Humedad_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="2"/>
-        <v>Sala_Interior_Sensor_00_Temperatura</v>
+        <v>Sala_Interior_Sensor_00_Humedad</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Temperatura de la Sala</v>
+        <v xml:space="preserve"> Humedad de la Sala</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Temperatura/</v>
+        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Humedad/</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="5"/>
-        <v>Sensor_Temperatura_de_la_Sala</v>
+        <v>Sensor_Humedad_de_la_Sala</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Temperatura_de_la_Sala.svg</v>
+        <f t="shared" si="12"/>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Humedad_de_la_Sala.svg</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>10</v>
@@ -2478,7 +3260,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>77</v>
@@ -2497,31 +3279,31 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="0"/>
-        <v>sensor.sensor_pared_bateria_sensor_th_00_zigbee_01_interior_sala</v>
+        <v>sensor.sensor_pared_temperatura_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="1"/>
-        <v>Sensor_Bateria_Sensor_TH_00_zigbee_01_Sala_Interior</v>
+        <v>Sensor_Temperatura_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="2"/>
-        <v>Sala_Interior_Sensor_00_Bateria_Sensor_TH</v>
+        <v>Sala_Interior_Sensor_00_Temperatura</v>
       </c>
       <c r="R17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Bateria_Sensor_TH de la Sala</v>
+        <v xml:space="preserve"> Temperatura de la Sala</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="4"/>
-        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Bateria_Sensor_TH/</v>
+        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Temperatura/</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="5"/>
-        <v>Sensor_Bateria_Sensor_TH_de_la_Sala</v>
+        <v>Sensor_Temperatura_de_la_Sala</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="6"/>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Bateria_Sensor_TH_de_la_Sala.svg</v>
+        <f t="shared" si="12"/>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Temperatura_de_la_Sala.svg</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>10</v>
@@ -2538,22 +3320,22 @@
         <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>77</v>
@@ -2568,49 +3350,49 @@
         <v>17</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" ref="O18" si="7">LOWER(SUBSTITUTE(CONCATENATE(F18,".",G18,V18,E18,V18,I18,V18,H18,V18,J18,V18,LEFT(K18,2),V18,B18,V18,D18),"-","_"))</f>
-        <v>cover.motor_cortina_pared_m_cortina_00_zigbee_01_interior_estudio</v>
+        <f t="shared" si="0"/>
+        <v>sensor.sensor_pared_bateria_sensor_th_00_zigbee_01_interior_sala</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" ref="P18" si="8">SUBSTITUTE(CONCATENATE(G18,V18,I18,V18,H18,V18,J18,V18,LEFT(K18,2),V18,D18,V18,B18),"-","_")</f>
-        <v>Motor_Cortina_M_Cortina_00_zigbee_01_Estudio_Interior</v>
+        <f t="shared" si="1"/>
+        <v>Sensor_Bateria_Sensor_TH_00_zigbee_01_Sala_Interior</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ref="Q18" si="9">SUBSTITUTE(CONCATENATE((D18),V18,(B18),V18,(G18),V18,H18, V18, I18),"-","_")</f>
-        <v>Estudio_Interior_Motor_Cortina_00_M_Cortina</v>
+        <f t="shared" si="2"/>
+        <v>Sala_Interior_Sensor_00_Bateria_Sensor_TH</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" ref="R18" si="10">SUBSTITUTE(CONCATENATE(IF(H18="00",,CONCATENATE(H18," "))," ",I18," ",N18," ",D18),"-", " ")</f>
-        <v xml:space="preserve"> M_Cortina del Estudio</v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> Bateria_Sensor_TH de la Sala</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" ref="S18" si="11">_xlfn.CONCAT(A18,"/",B18,"/",C18,"/",D18,"/",F18,"/",G18,"/",H18,"/",I18,"/")</f>
-        <v>Casa/Interior/Segunda-planta/Estudio/cover/Motor-Cortina/00/M_Cortina/</v>
+        <f t="shared" si="4"/>
+        <v>Casa/Interior/Segunda-planta/Sala/sensor/Sensor/00/Bateria_Sensor_TH/</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" ref="T18" si="12">CONCATENATE(G18,V18,IF(H18="00",,CONCATENATE(H18,V18)),I18,V18,SUBSTITUTE(N18," ","_"),V18,D18)</f>
-        <v>Motor-Cortina_M_Cortina_del_Estudio</v>
+        <f t="shared" si="5"/>
+        <v>Sensor_Bateria_Sensor_TH_de_la_Sala</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" ref="U18" si="13">_xlfn.CONCAT("/local/ismart/planos/Zonas/",B18,"/Ubicacion","/",C18,"/Areas","/",D18,"/",T18,".svg")</f>
-        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Estudio/Motor-Cortina_M_Cortina_del_Estudio.svg</v>
+        <f t="shared" si="12"/>
+        <v>/local/ismart/planos/Zonas/Interior/Ubicacion/Segunda-planta/Areas/Sala/Sensor_Bateria_Sensor_TH_de_la_Sala.svg</v>
       </c>
       <c r="V18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="K22" s="26"/>
+    <row r="23" spans="1:22">
+      <c r="K23" s="26"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V15">
-    <sortCondition ref="B2:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V16">
+    <sortCondition ref="B2:B16"/>
   </sortState>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="O20:O1048576 O1:O18">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2621,19 +3403,19 @@
           <x14:formula1>
             <xm:f>AreasSK!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D8 D10:D11</xm:sqref>
+          <xm:sqref>D9 D11:D12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D45CE4A7-E42B-4756-998A-3C7CEDAE1670}">
           <x14:formula1>
             <xm:f>AreasSK!$A$2:$A$81</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D7</xm:sqref>
+          <xm:sqref>D2:D8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39826518-181E-4705-8E10-895592D5D3B6}">
           <x14:formula1>
             <xm:f>AreasSK!$A$2:$A$32</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D18</xm:sqref>
+          <xm:sqref>D10:D18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9886CA0-ABF7-4DEF-981A-938147170D13}">
           <x14:formula1>
@@ -2689,541 +3471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795E1D1-AEFB-4BA2-85DE-EA1F172FA954}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021641D4-885E-4CBC-B3B6-61C30772A54B}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD521F66-7339-4766-87AE-20EB5EAC51B7}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6369E091-0E04-40BB-909D-8136BCC61440}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="16"/>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="G5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="G2" xr:uid="{68475AB6-6090-4CA7-AF87-A5D4EC6E7D68}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B077E1-37B3-4FBB-9A26-0E96A61E0B94}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="16">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="16">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="16">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0BB63B2D-9C7D-4DFB-8642-3E6935599FB4}">
-          <x14:formula1>
-            <xm:f>'Datos ComboBox'!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:E6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:P19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="62.625" customWidth="1"/>
-    <col min="13" max="13" width="26.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="57">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="102.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2" ht="14.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-    </row>
-    <row r="19" spans="14:16" ht="15" customHeight="1">
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE4AC1D-8502-4A3A-A231-380A86551402}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3231,7 +3479,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3424,7 +3672,7 @@
         <v>107</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
         <v>96</v>
@@ -3508,15 +3756,15 @@
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="SI">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="SI">
       <formula>NOT(ISERROR(SEARCH("SI",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="SI">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="SI">
       <formula>NOT(ISERROR(SEARCH("SI",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C15">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3541,7 +3789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFEE0C9-51BA-4BA9-BFE6-6D8BD90E455C}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3549,7 +3797,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3619,7 +3867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AE456F-FEC8-47D5-883F-384FCD112B93}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3627,7 +3875,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3714,15 +3962,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4835E477-E50A-4F6B-8EE3-C9E8A7CDD930}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3963,12 +4211,57 @@
         <v>card_group_switch_entities~Sala</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT(A12,"~",E12)</f>
+        <v>create_card_scenes_welcome~Estudio</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="str">
+        <f>_xlfn.CONCAT(A13,"~",E13)</f>
+        <v>card_group_switch_entities~Estudio</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" s="16"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="B2:B11" xr:uid="{37AE49D2-9CED-4E6E-9EBC-C46311551CD2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="B2:B14" xr:uid="{37AE49D2-9CED-4E6E-9EBC-C46311551CD2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3980,25 +4273,25 @@
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D11</xm:sqref>
+          <xm:sqref>D2:D14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{E5F6FFA7-9561-46C7-8026-03E748D14487}">
           <x14:formula1>
             <xm:f>AreasSK!$A$2:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E11</xm:sqref>
+          <xm:sqref>E2:E14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{C5473ADE-DC07-49B2-A82F-62EEC8FC8C54}">
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C11</xm:sqref>
+          <xm:sqref>C2:C14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" xr:uid="{7986FA5B-1C52-49BD-98F6-A9B7A99D71BA}">
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A11</xm:sqref>
+          <xm:sqref>A2:A14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4006,7 +4299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3524E0-4C8C-47D1-B095-A060BEC62B67}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -4036,7 +4329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD10A63-CCAA-4FA1-A317-5EAEA4E3DC5B}">
   <dimension ref="A1:A18"/>
   <sheetViews>
@@ -4147,7 +4440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C995BE-9AFD-4F24-9038-2BC0697FD49C}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -4221,45 +4514,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DE2E24-C651-4BC6-99A4-AC86854674C1}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
-    <sortCondition ref="A2:A4"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/plantilla/datos.xlsx
+++ b/plantilla/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMPORAL-STALYN\IOT\Clientes\1722439120_Stalyn_Quishpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8390587F-0E82-40C1-BE14-BAB597D3957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196A062-8AF2-47A2-BDE3-6B9D4291AC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuracion" sheetId="21" r:id="rId1"/>
@@ -978,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1024,31 +1024,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1096,6 +1081,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1316,7 +1308,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1351,7 +1343,7 @@
       <c r="A3" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>189</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1362,7 +1354,7 @@
       <c r="A4" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -1376,7 +1368,7 @@
       <c r="B5" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="23" t="s">
@@ -1390,25 +1382,20 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="23" t="s">
         <v>195</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B6">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(B2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,7 +3379,7 @@
     <sortCondition ref="B2:B16"/>
   </sortState>
   <conditionalFormatting sqref="O20:O1048576 O1:O18">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3756,15 +3743,15 @@
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="SI">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="SI">
       <formula>NOT(ISERROR(SEARCH("SI",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="SI">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="SI">
       <formula>NOT(ISERROR(SEARCH("SI",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C15">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3809,42 +3796,42 @@
       <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="16" t="s">
@@ -4258,7 +4245,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Registro repedito" error="Hay registros repetidos_x000a_en las columnas_x000a_name_cards_i_ismar y order" sqref="B2:B14" xr:uid="{37AE49D2-9CED-4E6E-9EBC-C46311551CD2}"/>

--- a/plantilla/datos.xlsx
+++ b/plantilla/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMPORAL-STALYN\IOT\Clientes\1722439120_Stalyn_Quishpe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196A062-8AF2-47A2-BDE3-6B9D4291AC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BBA991-5E05-4C3B-80AC-54528863299A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuracion" sheetId="21" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="201">
   <si>
     <t>domain</t>
   </si>
@@ -1307,7 +1307,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1807,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B077E1-37B3-4FBB-9A26-0E96A61E0B94}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1821,7 +1821,7 @@
     <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="21" t="s">
         <v>140</v>
       </c>
@@ -1834,11 +1834,8 @@
       <c r="D1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
         <v>150</v>
       </c>
@@ -1851,11 +1848,8 @@
       <c r="D2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
         <v>141</v>
       </c>
@@ -1868,11 +1862,8 @@
       <c r="D3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
         <v>151</v>
       </c>
@@ -1885,11 +1876,8 @@
       <c r="D4" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="16" t="s">
         <v>138</v>
       </c>
@@ -1902,11 +1890,8 @@
       <c r="D5" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="16" t="s">
         <v>142</v>
       </c>
@@ -1917,9 +1902,6 @@
         <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1932,7 +1914,7 @@
           <x14:formula1>
             <xm:f>'Datos ComboBox'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E6</xm:sqref>
+          <xm:sqref>D2:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
